--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_56.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_56.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32607-d8004975-Reviews-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>184</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Lancaster-Hotels-Best-Western-Plus-Desert-Poppy-Inn.h11005321.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_56.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_56.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="872">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2506 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r576056429-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>32607</t>
+  </si>
+  <si>
+    <t>8004975</t>
+  </si>
+  <si>
+    <t>576056429</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Very  Relaxing</t>
+  </si>
+  <si>
+    <t>We Had Such A Pleasant Night Of Sleep! We we're In Town As Venders At The 2018 Poppy Fest We Have Been Truly Blessed Staying At The Best Western Plus I Will Definally  Stay There Again &amp; Would Always Recommend People To Give it A Try. REAL TALK !MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>We Had Such A Pleasant Night Of Sleep! We we're In Town As Venders At The 2018 Poppy Fest We Have Been Truly Blessed Staying At The Best Western Plus I Will Definally  Stay There Again &amp; Would Always Recommend People To Give it A Try. REAL TALK !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r575857999-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>575857999</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Impressed when we didn't expect to be</t>
+  </si>
+  <si>
+    <t>Access:  When we arrived, we did not see any sign that said “Desert Poppy Inn” anywhere, just “Best Western”.   Check-in was friendly, and we appreciated the WIFI password written in fat purple marker on the wee envelope the card keys came in.  Card keys work by holding them up to the reader on the door. No sticking a card in a slot in multiple orientations to get the door to open.  No views. Next to freeway.
+Snacks &amp; Breakfast: The room had a microwave and a minifridge (instead of a glorified cooler as some 4 star properties are now providing with a straight face)). During check in I noted a room off the lobby that had snack products on display.  I fetched a microwave popcorn pouch (only a buck) and used the microwave in our room to pop it.  Not a gourmet experience, but it hit the spot and held us over until our dinner reservation.  
+The free breakfast was ergonomically well-laid out as well as tasty. Choices included oatmeal with many toppings, 3 kinds of cold cereal, 3 kinds of fresh fruit, many yogurt flavors, cranberry juice as well as OJ and apple juice, coffee &amp; tea, 2 wafflemakers, scrambled and boiled eggs and bacon. Pastries and bread items were sized to reduce guilt.  Some may not want an entire bagel, for example, so the pre-slit mini-bagels and the effective toaster (many disappoint nowadays) were appreciated.  The chafing dishes...Access:  When we arrived, we did not see any sign that said “Desert Poppy Inn” anywhere, just “Best Western”.   Check-in was friendly, and we appreciated the WIFI password written in fat purple marker on the wee envelope the card keys came in.  Card keys work by holding them up to the reader on the door. No sticking a card in a slot in multiple orientations to get the door to open.  No views. Next to freeway.Snacks &amp; Breakfast: The room had a microwave and a minifridge (instead of a glorified cooler as some 4 star properties are now providing with a straight face)). During check in I noted a room off the lobby that had snack products on display.  I fetched a microwave popcorn pouch (only a buck) and used the microwave in our room to pop it.  Not a gourmet experience, but it hit the spot and held us over until our dinner reservation.  The free breakfast was ergonomically well-laid out as well as tasty. Choices included oatmeal with many toppings, 3 kinds of cold cereal, 3 kinds of fresh fruit, many yogurt flavors, cranberry juice as well as OJ and apple juice, coffee &amp; tea, 2 wafflemakers, scrambled and boiled eggs and bacon. Pastries and bread items were sized to reduce guilt.  Some may not want an entire bagel, for example, so the pre-slit mini-bagels and the effective toaster (many disappoint nowadays) were appreciated.  The chafing dishes in which the scrambled eggs and bacon were served had a feature that reduced mess and made them easier to use.  They had hinged lids that stayed up when lifted.  No holding a dripping lid aloft with one hand, spooning what you want with a second hand and holding a plate close enough to catch errant bits with one’s third hand.Bathroom:  Plenty of counter space and light!  No balancing toiletries on edges.  No wondering if the inability to see how much makeup is being applied has resulted in a finished face more appropriate to the clowning profession.  The tub drain ran w/o backing up.Bed, TV, WIFI, carpets:   The king bed was comfy. TV and WIFI were easy to use and reliable. The carpets in the halls had a fetching design with 3 infinite stems of buds that ran parallel to the halls on a field of geometric shapes. Sounds jarring but it totally worked.  Room carpet new. Everything seemed clean.Elevators:  There is only one, and it was slow enough to cause us to switch to the stairs for our third floor room.  It made more groaning and squeaking noises than a freight elevator (and I’ve operated my share).  The staircases are at the ends of the building, but I think they were faster overall.  At least it felt that way.Price: With the included breakfast for 2, the room price was a good value.  We saw a couple of reviews that indicated the price went up between booking and check in, so we printed out our booking and brought it just in case.  Lancaster does not have a rep as tourist destination but we found many murals, a fetching downtown, people who say hello to tourists, good espresso (e.g. Liquid Bean not only served smooth coffee fast, but did so in a charming manner) and an art museum.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Access:  When we arrived, we did not see any sign that said “Desert Poppy Inn” anywhere, just “Best Western”.   Check-in was friendly, and we appreciated the WIFI password written in fat purple marker on the wee envelope the card keys came in.  Card keys work by holding them up to the reader on the door. No sticking a card in a slot in multiple orientations to get the door to open.  No views. Next to freeway.
+Snacks &amp; Breakfast: The room had a microwave and a minifridge (instead of a glorified cooler as some 4 star properties are now providing with a straight face)). During check in I noted a room off the lobby that had snack products on display.  I fetched a microwave popcorn pouch (only a buck) and used the microwave in our room to pop it.  Not a gourmet experience, but it hit the spot and held us over until our dinner reservation.  
+The free breakfast was ergonomically well-laid out as well as tasty. Choices included oatmeal with many toppings, 3 kinds of cold cereal, 3 kinds of fresh fruit, many yogurt flavors, cranberry juice as well as OJ and apple juice, coffee &amp; tea, 2 wafflemakers, scrambled and boiled eggs and bacon. Pastries and bread items were sized to reduce guilt.  Some may not want an entire bagel, for example, so the pre-slit mini-bagels and the effective toaster (many disappoint nowadays) were appreciated.  The chafing dishes...Access:  When we arrived, we did not see any sign that said “Desert Poppy Inn” anywhere, just “Best Western”.   Check-in was friendly, and we appreciated the WIFI password written in fat purple marker on the wee envelope the card keys came in.  Card keys work by holding them up to the reader on the door. No sticking a card in a slot in multiple orientations to get the door to open.  No views. Next to freeway.Snacks &amp; Breakfast: The room had a microwave and a minifridge (instead of a glorified cooler as some 4 star properties are now providing with a straight face)). During check in I noted a room off the lobby that had snack products on display.  I fetched a microwave popcorn pouch (only a buck) and used the microwave in our room to pop it.  Not a gourmet experience, but it hit the spot and held us over until our dinner reservation.  The free breakfast was ergonomically well-laid out as well as tasty. Choices included oatmeal with many toppings, 3 kinds of cold cereal, 3 kinds of fresh fruit, many yogurt flavors, cranberry juice as well as OJ and apple juice, coffee &amp; tea, 2 wafflemakers, scrambled and boiled eggs and bacon. Pastries and bread items were sized to reduce guilt.  Some may not want an entire bagel, for example, so the pre-slit mini-bagels and the effective toaster (many disappoint nowadays) were appreciated.  The chafing dishes in which the scrambled eggs and bacon were served had a feature that reduced mess and made them easier to use.  They had hinged lids that stayed up when lifted.  No holding a dripping lid aloft with one hand, spooning what you want with a second hand and holding a plate close enough to catch errant bits with one’s third hand.Bathroom:  Plenty of counter space and light!  No balancing toiletries on edges.  No wondering if the inability to see how much makeup is being applied has resulted in a finished face more appropriate to the clowning profession.  The tub drain ran w/o backing up.Bed, TV, WIFI, carpets:   The king bed was comfy. TV and WIFI were easy to use and reliable. The carpets in the halls had a fetching design with 3 infinite stems of buds that ran parallel to the halls on a field of geometric shapes. Sounds jarring but it totally worked.  Room carpet new. Everything seemed clean.Elevators:  There is only one, and it was slow enough to cause us to switch to the stairs for our third floor room.  It made more groaning and squeaking noises than a freight elevator (and I’ve operated my share).  The staircases are at the ends of the building, but I think they were faster overall.  At least it felt that way.Price: With the included breakfast for 2, the room price was a good value.  We saw a couple of reviews that indicated the price went up between booking and check in, so we printed out our booking and brought it just in case.  Lancaster does not have a rep as tourist destination but we found many murals, a fetching downtown, people who say hello to tourists, good espresso (e.g. Liquid Bean not only served smooth coffee fast, but did so in a charming manner) and an art museum.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r575150099-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>575150099</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel and it shows. Rooms are spacious, modern, and spotlessly clean. Although it is located close to highway 14, it was very quiet. The staff was really nice and I received an upgrade to a beautiful suite. Breakfast was very good and they also have a "social hour" with snacks and non-alcoholic beverages in the late afternoon.My only regret was that there were no poppies at the Reserve but of course that's not the hotel's fault. I'll just have to come back someday!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>BestWestern L, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel and it shows. Rooms are spacious, modern, and spotlessly clean. Although it is located close to highway 14, it was very quiet. The staff was really nice and I received an upgrade to a beautiful suite. Breakfast was very good and they also have a "social hour" with snacks and non-alcoholic beverages in the late afternoon.My only regret was that there were no poppies at the Reserve but of course that's not the hotel's fault. I'll just have to come back someday!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r568117834-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>568117834</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Nice, clean, and quiet</t>
+  </si>
+  <si>
+    <t>Great place to stay, especially after a long drive.The room was clean and quiet, just what you would expect from a Best Western Plus.We only stayed overnight, so we didn't take advantage of any amenities aside from the breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Great place to stay, especially after a long drive.The room was clean and quiet, just what you would expect from a Best Western Plus.We only stayed overnight, so we didn't take advantage of any amenities aside from the breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r559788638-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>559788638</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>Great quiet hotel</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel four times. The first by accident. Whether coming into town for business or to visit friends, it is exceptional.  The staff is great, very personable and friendly. Rooms are spacious and extremely clean. Comfy beds and a great breakfast. Week day happy hour is a nice add on. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel four times. The first by accident. Whether coming into town for business or to visit friends, it is exceptional.  The staff is great, very personable and friendly. Rooms are spacious and extremely clean. Comfy beds and a great breakfast. Week day happy hour is a nice add on. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r558688956-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>558688956</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>Great hotel in Lancaster</t>
+  </si>
+  <si>
+    <t>This is a wonderful and new property. Very clean, pool and gym were nice. Excellent choice if you need to say in Lancastor. Breakfast was great and the staff were very nice.  The check in was not early but other than that it was great. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>This is a wonderful and new property. Very clean, pool and gym were nice. Excellent choice if you need to say in Lancastor. Breakfast was great and the staff were very nice.  The check in was not early but other than that it was great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r556879447-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>556879447</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>Shawn at the front desk!!!</t>
+  </si>
+  <si>
+    <t>Shawn at the front desk was amazing! She was kind and helpful and very professional! She greeted us and treated us with respect! She would be recognized for that we have encountered 3 other front desk clerks. None as bubbly and friendly as Shawn.Our rooms where super clean!! And it was quiet and relaxing. MoreShow less</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Shawn at the front desk was amazing! She was kind and helpful and very professional! She greeted us and treated us with respect! She would be recognized for that we have encountered 3 other front desk clerks. None as bubbly and friendly as Shawn.Our rooms where super clean!! And it was quiet and relaxing. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r556760865-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>556760865</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t>Close to Willowsprings raceway</t>
+  </si>
+  <si>
+    <t>We were doing a course at willow springs raceway for 3 days and we stayed here for 4 nights. It was a very comfortable room, lots of space, quiet, had a great breakfast and they even offered free snacks and drinks in the afternoon. The staff were friendly and helpful. I worked out a couple of times in the gym and we did laundry as well. Lots of restaurants nearby, very close to everything. I only wish they were pet friendly, but I would definitely recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded January 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2018</t>
+  </si>
+  <si>
+    <t>We were doing a course at willow springs raceway for 3 days and we stayed here for 4 nights. It was a very comfortable room, lots of space, quiet, had a great breakfast and they even offered free snacks and drinks in the afternoon. The staff were friendly and helpful. I worked out a couple of times in the gym and we did laundry as well. Lots of restaurants nearby, very close to everything. I only wish they were pet friendly, but I would definitely recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r551916056-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>551916056</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay when traveling</t>
+  </si>
+  <si>
+    <t>I have spent overnights at other Best Westerns and this event met the standards I expected,  Staff was helpful and friendly.  I just wish breakfast would be available until 10:00 on weekdays for those of us who would prefer to sleep in a bit and still enjoy the free breakfast.  Would definitely stay at Best Western Hotels in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWestern L, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded January 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2018</t>
+  </si>
+  <si>
+    <t>I have spent overnights at other Best Westerns and this event met the standards I expected,  Staff was helpful and friendly.  I just wish breakfast would be available until 10:00 on weekdays for those of us who would prefer to sleep in a bit and still enjoy the free breakfast.  Would definitely stay at Best Western Hotels in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r550343236-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>550343236</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>This is a newer hotel. It is easy to find, right off of the freeway. Check in was a breeze, with friendly, helpful counter staff. The place is clean and fresh. The staff is very helpful. The rooms are very nice and spacious. The hot breakfast is well stocked.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>BestWestern L, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded December 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2017</t>
+  </si>
+  <si>
+    <t>This is a newer hotel. It is easy to find, right off of the freeway. Check in was a breeze, with friendly, helpful counter staff. The place is clean and fresh. The staff is very helpful. The rooms are very nice and spacious. The hot breakfast is well stocked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r549870565-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>549870565</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's everything you need in a hotel! </t>
+  </si>
+  <si>
+    <t>It's location is very convenient. It's clean, roomy, and many amenities. Shawn and Jack, the night/overnight staff, have been very helpful, polite and accommodating, especially since I'm here for work. MoreShow less</t>
+  </si>
+  <si>
+    <t>It's location is very convenient. It's clean, roomy, and many amenities. Shawn and Jack, the night/overnight staff, have been very helpful, polite and accommodating, especially since I'm here for work. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r549505445-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>549505445</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>New building, nice and clean room.</t>
+  </si>
+  <si>
+    <t>New building, nice and clean. Close by parents home. Easy access hwy and local places. Microwave and refugiator in the room. We r on the 3rd floor with good view.breakfster is great and hot water serve all day.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWestern L, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2017</t>
+  </si>
+  <si>
+    <t>New building, nice and clean. Close by parents home. Easy access hwy and local places. Microwave and refugiator in the room. We r on the 3rd floor with good view.breakfster is great and hot water serve all day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r548070086-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>548070086</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>Super friendly staff, clean rooms, effortless check in and out, always parking available. I’d recommend staying here for sure. Although the fitness center was a bit small, at least there was one available. MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWestern L, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Super friendly staff, clean rooms, effortless check in and out, always parking available. I’d recommend staying here for sure. Although the fitness center was a bit small, at least there was one available. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r547984113-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>547984113</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Very good motel</t>
+  </si>
+  <si>
+    <t>Even though we experienced a hiccup in the registration process where I thought central reservations had booked me a fully accessible room, it turns out the room was accessible to get into, but not the shower and toilet. Shawn, the evening clerk made sure were satisfied and let me look at the room prior to final check in. The property is clean, comfortable, and workable for us needing accessibility. Breakfast was good and presentable. I will stay here again, but I'll insist on a fully accessible room from the front dest, not reservation central.MoreShow less</t>
+  </si>
+  <si>
+    <t>Even though we experienced a hiccup in the registration process where I thought central reservations had booked me a fully accessible room, it turns out the room was accessible to get into, but not the shower and toilet. Shawn, the evening clerk made sure were satisfied and let me look at the room prior to final check in. The property is clean, comfortable, and workable for us needing accessibility. Breakfast was good and presentable. I will stay here again, but I'll insist on a fully accessible room from the front dest, not reservation central.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r546751380-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>546751380</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Love new hotels!</t>
+  </si>
+  <si>
+    <t>We enjoyed this new hotel at the north end of the Antelope Valley - it's a convenient location for us with an excellent price, AND everything is brand new!  Bonus!!  Service was good, breakfast was nice, everything was very clean, the bed was comfortable, and the wifi worked - nothing to complain about.  I can say that I LOVED the shower and the shower amenities, which is very unusual at this price point!!MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWestern L, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2017</t>
+  </si>
+  <si>
+    <t>We enjoyed this new hotel at the north end of the Antelope Valley - it's a convenient location for us with an excellent price, AND everything is brand new!  Bonus!!  Service was good, breakfast was nice, everything was very clean, the bed was comfortable, and the wifi worked - nothing to complain about.  I can say that I LOVED the shower and the shower amenities, which is very unusual at this price point!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r543740062-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>543740062</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Outstanding Stay</t>
+  </si>
+  <si>
+    <t>This Best Western location is without a doubt the best Best Western that we have stayed at, it has been immaculate every time we have stayed there. We have stayed at many other locations and this is without a doubt the very best.  Staff has been outstanding always willing to help.. Highly recommend to everyone in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2017</t>
+  </si>
+  <si>
+    <t>This Best Western location is without a doubt the best Best Western that we have stayed at, it has been immaculate every time we have stayed there. We have stayed at many other locations and this is without a doubt the very best.  Staff has been outstanding always willing to help.. Highly recommend to everyone in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r542352466-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>542352466</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Really enjoy staying at this hotel on a weekly basis. Shawn and Melissa are always so helpful and have great customer service. When I check in, I like to see one of those faces when I walk through the door. A++++++MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWestern L, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded November 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2017</t>
+  </si>
+  <si>
+    <t>Really enjoy staying at this hotel on a weekly basis. Shawn and Melissa are always so helpful and have great customer service. When I check in, I like to see one of those faces when I walk through the door. A++++++More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r542349379-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>542349379</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>If you are in the AV and looking for a nice place to stay with friendly service this is your spot. Shawn offers great customer service and always make us feel welcome after a long day of work. No matter how late it is she always greats us with a smile. Keep Rocking Shawn. We appreciate your prompt assistance and welcoming spirit. Thanks for making our home away from home comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you are in the AV and looking for a nice place to stay with friendly service this is your spot. Shawn offers great customer service and always make us feel welcome after a long day of work. No matter how late it is she always greats us with a smile. Keep Rocking Shawn. We appreciate your prompt assistance and welcoming spirit. Thanks for making our home away from home comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r540917606-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>540917606</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Lancaster hotels</t>
+  </si>
+  <si>
+    <t>The stay here was comfortable and the hotel was clean with a nice hot breakfast in the morning with a very well taken care of selection. If you have to stay in Lancaster, this would be the place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>The stay here was comfortable and the hotel was clean with a nice hot breakfast in the morning with a very well taken care of selection. If you have to stay in Lancaster, this would be the place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r540764559-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>540764559</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Great Friendly Hotel</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel and would recommend this one to anyone traveling.  The staff was efficient, friendly and very helpful.   Shawn went out of her way to take care of us and we really appreciate it.   The room was quiet and clean, the cleaning staff was amazing, and the workers for the breakfast were on top of things.  We were very impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWestern L, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel and would recommend this one to anyone traveling.  The staff was efficient, friendly and very helpful.   Shawn went out of her way to take care of us and we really appreciate it.   The room was quiet and clean, the cleaning staff was amazing, and the workers for the breakfast were on top of things.  We were very impressed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r540506869-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>540506869</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Nice budget friendly hotel</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for one night. It was very nice. There was plenty of parking, the lobby was nice and clean, the rooms were spacious, clean and smelled like fresh laundry. Shawn at the front desk was wonderful.  She was friendly, informative about kid friendly dining in the area, and was so sweet to our 3 month old baby. She even remembered his name the next morning we were checking out. Don't know if ill be in this area again, but if I was I'd definitely stay here again. Oh, free continental breakfast was really good too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for one night. It was very nice. There was plenty of parking, the lobby was nice and clean, the rooms were spacious, clean and smelled like fresh laundry. Shawn at the front desk was wonderful.  She was friendly, informative about kid friendly dining in the area, and was so sweet to our 3 month old baby. She even remembered his name the next morning we were checking out. Don't know if ill be in this area again, but if I was I'd definitely stay here again. Oh, free continental breakfast was really good too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r538928312-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>538928312</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Beautiful new hotel</t>
+  </si>
+  <si>
+    <t>The hotel rooms are spacious and beautifully decorated.    Each morning started with a full breakfast bar and the evening ended with a nice drink at the bar.   The front desk associate, Shawn, was extremely helpful and very upbeat.MoreShow less</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>The hotel rooms are spacious and beautifully decorated.    Each morning started with a full breakfast bar and the evening ended with a nice drink at the bar.   The front desk associate, Shawn, was extremely helpful and very upbeat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r538924384-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>538924384</t>
+  </si>
+  <si>
+    <t>Great hotel with amazing staff</t>
+  </si>
+  <si>
+    <t>This hotel has met and exceeded my expectations while on my business trips to Lancaster.  Rooms are spacious and clean. Staff is friendly and accommodating.  I have had the pleasure of interacting with Shawn, front desk, several times during my various stays.  She is polite and friendly. Some of my fellow business travel companions have made the same observation.  Keep up the good work, Shawn.  She is a great employee that goes above and beyond to assure my stay at the Poppy Inn is pleasant and trouble free.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has met and exceeded my expectations while on my business trips to Lancaster.  Rooms are spacious and clean. Staff is friendly and accommodating.  I have had the pleasure of interacting with Shawn, front desk, several times during my various stays.  She is polite and friendly. Some of my fellow business travel companions have made the same observation.  Keep up the good work, Shawn.  She is a great employee that goes above and beyond to assure my stay at the Poppy Inn is pleasant and trouble free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r538985253-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>538985253</t>
+  </si>
+  <si>
+    <t>satified</t>
+  </si>
+  <si>
+    <t>great staff, professional establishment,clean and accommodating. friendly staff. easy quick check in and check out. great location to food options and near the freeway. real quiet area little to no disturbance during the night making for a good night sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>great staff, professional establishment,clean and accommodating. friendly staff. easy quick check in and check out. great location to food options and near the freeway. real quiet area little to no disturbance during the night making for a good night sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r537679770-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>537679770</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>The rooms at this hotel are very nice. Shawn working at the front was very professional and helpful. I definitely recommend this hotel if you are going to be in the area. Breakfast is included. They will value you as a customer.MoreShow less</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded November 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2017</t>
+  </si>
+  <si>
+    <t>The rooms at this hotel are very nice. Shawn working at the front was very professional and helpful. I definitely recommend this hotel if you are going to be in the area. Breakfast is included. They will value you as a customer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r536748154-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>536748154</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Home Away</t>
+  </si>
+  <si>
+    <t>Always a pleasure staying at my away from home. Lancaster Poppy Inn Best Western is always provides friendly and accomodating service for many.  So many professionals share this home away for business and it's nice to see the same faces every week for breakfast or happy hour.  All the staff are great! Beds are comfortable and the amenities and location are perfect. MoreShow less</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Always a pleasure staying at my away from home. Lancaster Poppy Inn Best Western is always provides friendly and accomodating service for many.  So many professionals share this home away for business and it's nice to see the same faces every week for breakfast or happy hour.  All the staff are great! Beds are comfortable and the amenities and location are perfect. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r533637614-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>533637614</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Huge rooms. Friendly staff.  The breakfast was delicious and up kept with the refills. Loved that there was a laundry room where we were able to wash our daughter's uniform for her games that weekend. Wonderful experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Huge rooms. Friendly staff.  The breakfast was delicious and up kept with the refills. Loved that there was a laundry room where we were able to wash our daughter's uniform for her games that weekend. Wonderful experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r527475080-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>527475080</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Great Stay in Lancaster, CA</t>
+  </si>
+  <si>
+    <t>Very good stay in Lancaster, CA for business. Breakfast and happy hour snacks were available, as well as restaurants within walking distance. Hotel rooms were comfortable with nicely made beds and cleanliness of rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Very good stay in Lancaster, CA for business. Breakfast and happy hour snacks were available, as well as restaurants within walking distance. Hotel rooms were comfortable with nicely made beds and cleanliness of rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r527098423-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>527098423</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>We've stayed here every year for the last 3 years while visting with family in the area only place we prefer to stay, all  of the staff are very helpful and  friendly the only reason to stay anywhere else would be we didn't book in time.     MoreShow less</t>
+  </si>
+  <si>
+    <t>We've stayed here every year for the last 3 years while visting with family in the area only place we prefer to stay, all  of the staff are very helpful and  friendly the only reason to stay anywhere else would be we didn't book in time.     More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r525847478-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>525847478</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Mel and Jack great the rooms in huge is the best experience I've ever had in a hotel</t>
+  </si>
+  <si>
+    <t>Mel and Jack are great the rooms are huge I love looking at the view out of the 3rd floor there's also a lot of parking the breakfast is really great I love the bacon and eggs and the hot sauce I also like the gym that you guys have its 24 hoursMoreShow less</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded September 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2017</t>
+  </si>
+  <si>
+    <t>Mel and Jack are great the rooms are huge I love looking at the view out of the 3rd floor there's also a lot of parking the breakfast is really great I love the bacon and eggs and the hot sauce I also like the gym that you guys have its 24 hoursMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r525318538-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>525318538</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Great Customer care</t>
+  </si>
+  <si>
+    <t>The Dessert Puppy was a great hotel located in Lancaster, Califonia. It is a new hotel with free breakfast and two drinks after 5:P.M. I would love to stay again at this location.The breakfast  was more than continental breakfast and it was better than   Danny's or any other restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>The Dessert Puppy was a great hotel located in Lancaster, Califonia. It is a new hotel with free breakfast and two drinks after 5:P.M. I would love to stay again at this location.The breakfast  was more than continental breakfast and it was better than   Danny's or any other restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r520124444-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>520124444</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>Love Best Western</t>
+  </si>
+  <si>
+    <t>Good new hotel. Great rate! Quality Best Western experience.Close to In&amp;Out, Arco Gas and freeway.Close to Fairgrounds and Baseball Stadium.Did not use pool,breakfast or any other amenity. Recommend this property. Thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded September 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2017</t>
+  </si>
+  <si>
+    <t>Good new hotel. Great rate! Quality Best Western experience.Close to In&amp;Out, Arco Gas and freeway.Close to Fairgrounds and Baseball Stadium.Did not use pool,breakfast or any other amenity. Recommend this property. Thanks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r518617001-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>518617001</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Quiet, spacious room</t>
+  </si>
+  <si>
+    <t>Besides the minor detail that you're in Lancaster... this hotel is awesome! The room was super spacious, which was great for our 1.5 yr old to play around in and for her pack n' play set up... I'm not sure how full the hotel was during our stay, but our room was gloriously quiet (which I find rare at hotels) besides some traffic noise... also loved the breakfast spread that's included.MoreShow less</t>
+  </si>
+  <si>
+    <t>Besides the minor detail that you're in Lancaster... this hotel is awesome! The room was super spacious, which was great for our 1.5 yr old to play around in and for her pack n' play set up... I'm not sure how full the hotel was during our stay, but our room was gloriously quiet (which I find rare at hotels) besides some traffic noise... also loved the breakfast spread that's included.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r514111530-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>514111530</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Place to Stay</t>
+  </si>
+  <si>
+    <t>This is a new hotel in Lancaster, CA.  The hotel was a delight.  The facilities were wonderful, from the pool to the exercise room.  Breakfast was incredible and staff members were polite, professional and very helpful.  We will stay again next time we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded August 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2017</t>
+  </si>
+  <si>
+    <t>This is a new hotel in Lancaster, CA.  The hotel was a delight.  The facilities were wonderful, from the pool to the exercise room.  Breakfast was incredible and staff members were polite, professional and very helpful.  We will stay again next time we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r511647191-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>511647191</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Our Stay</t>
+  </si>
+  <si>
+    <t>We love it here at the Best Western Plus Desert Poppy Inn, Lancaster. The staff is kind and considerate. It is very close to everything we need. It is quite and the pool is not over crowded. Its just a really nice place to be. And our family can come visit us here.MoreShow less</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded August 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2017</t>
+  </si>
+  <si>
+    <t>We love it here at the Best Western Plus Desert Poppy Inn, Lancaster. The staff is kind and considerate. It is very close to everything we need. It is quite and the pool is not over crowded. Its just a really nice place to be. And our family can come visit us here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r510091469-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>510091469</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Have stayed several weekends at this property</t>
+  </si>
+  <si>
+    <t>King room are nicely sized with space to walk around in.  Bed are comfortable with lots of pillows.  Bathroom Showers have great water pressure.  Front Desk Staff are excellent seamless check-in process and always glad to see you.  The breakfast is also very good with a lot of option and really good coffee.  I will continue to stay herewhen I can.  Thank You Best Western for having us.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>King room are nicely sized with space to walk around in.  Bed are comfortable with lots of pillows.  Bathroom Showers have great water pressure.  Front Desk Staff are excellent seamless check-in process and always glad to see you.  The breakfast is also very good with a lot of option and really good coffee.  I will continue to stay herewhen I can.  Thank You Best Western for having us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r506364524-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>506364524</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>overnight stay at BW Plus Desert Poppy Inn</t>
+  </si>
+  <si>
+    <t>We have stayed here before while traveling through the AV. Very nice room and the desk staff was friendly and efficient. The buffet breakfast was quite good and the lady in charge was very helpful and kept the area spotless. Actually one of the best hotel buffet breakfasts we have had in a long while.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWestern L, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed here before while traveling through the AV. Very nice room and the desk staff was friendly and efficient. The buffet breakfast was quite good and the lady in charge was very helpful and kept the area spotless. Actually one of the best hotel buffet breakfasts we have had in a long while.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r506118863-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>506118863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convention </t>
+  </si>
+  <si>
+    <t>This is a newer hotel. Hotel was very clean. They offer a guest laundry. All soap and laundry products sold at front desk. Easy access to hotel wifi, conveniently located around many things.  Many food outlet nearby. They offer a nice full breakfast daily.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a newer hotel. Hotel was very clean. They offer a guest laundry. All soap and laundry products sold at front desk. Easy access to hotel wifi, conveniently located around many things.  Many food outlet nearby. They offer a nice full breakfast daily.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r505626168-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>505626168</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for 2 nights, first night booked through a 3rd party website, second night booked directly through the hotel. Front desk staff are friendly and accomodating, did not have any issues with checking in/out. Since this hotel is new, the room we stayed in was very clean, airconditioner worked great (High Desert temperature can be extreme around this time of the year), bathroom was very clean and beds are both comfy. Breakfast was included both days which was a nice addition, decent selection for continental breakfast. The only downside is that the parking lot entrance can be a bit tricky. I live locally but still had to go around and take another street (Valley Central Way to Ave I) as you cannot make a left on Ave I and from 20th St West. Overall a great hotel, highly recommended! MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWestern L, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for 2 nights, first night booked through a 3rd party website, second night booked directly through the hotel. Front desk staff are friendly and accomodating, did not have any issues with checking in/out. Since this hotel is new, the room we stayed in was very clean, airconditioner worked great (High Desert temperature can be extreme around this time of the year), bathroom was very clean and beds are both comfy. Breakfast was included both days which was a nice addition, decent selection for continental breakfast. The only downside is that the parking lot entrance can be a bit tricky. I live locally but still had to go around and take another street (Valley Central Way to Ave I) as you cannot make a left on Ave I and from 20th St West. Overall a great hotel, highly recommended! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r503685235-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>503685235</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Great staff and hotel!</t>
+  </si>
+  <si>
+    <t>My daughter, grandson, and I headed to Lancaster for the super bloom. This was a great home base for all we wanted to see.  The hotel was very clean and in great condition.  The staff was extremely friendly and went out of their way to make our stay great.  The only problem I saw was it looked like some outside managers were training the staff on some new breakfast buffet items.  They were very negative with the staff in front of the guests.  Nothing against the hotel, just the people training them.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWestern L, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>My daughter, grandson, and I headed to Lancaster for the super bloom. This was a great home base for all we wanted to see.  The hotel was very clean and in great condition.  The staff was extremely friendly and went out of their way to make our stay great.  The only problem I saw was it looked like some outside managers were training the staff on some new breakfast buffet items.  They were very negative with the staff in front of the guests.  Nothing against the hotel, just the people training them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r503380496-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>503380496</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel</t>
+  </si>
+  <si>
+    <t>This is by far the best hotel we've stayed in while traveling hands down. Room was clean, smelled fresh, comfortable, staff was wonderful and so sweet and kind. Breakfast was always tasty and delish! The pool was clean and refreshing and the hot tub was warm and comfortable after a hard day's traveling.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWestern L, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>This is by far the best hotel we've stayed in while traveling hands down. Room was clean, smelled fresh, comfortable, staff was wonderful and so sweet and kind. Breakfast was always tasty and delish! The pool was clean and refreshing and the hot tub was warm and comfortable after a hard day's traveling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r503055039-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>503055039</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Nice staff</t>
+  </si>
+  <si>
+    <t>Went to soccer tournament nice that we had breakfast included for the girls to eat before their games not having to rush to get breakfast! That was nice. Business center was nice I was able to catch on up on e-mails. The staff was very helpful and attentive.  Rooms were very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Went to soccer tournament nice that we had breakfast included for the girls to eat before their games not having to rush to get breakfast! That was nice. Business center was nice I was able to catch on up on e-mails. The staff was very helpful and attentive.  Rooms were very clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r500330245-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>500330245</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Comfortable &amp; Clean</t>
+  </si>
+  <si>
+    <t>The staff were all very helpful, the rooms clean and bed comfortable. Easy commute to raceway. They have a list of different restaurants close by they recommend for dinning and there is Starbucks across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>The staff were all very helpful, the rooms clean and bed comfortable. Easy commute to raceway. They have a list of different restaurants close by they recommend for dinning and there is Starbucks across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r499824725-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>499824725</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>great place</t>
+  </si>
+  <si>
+    <t>everyone from Manager down the line were helpful and extremely friendly it was one of the most pleasant stays I have ever had. We had no problems everything worked and was extremely clean the continental breakfast was fine two types of waffles along with normal eggs, meats and assorted offeringsMoreShow less</t>
+  </si>
+  <si>
+    <t>BWPlusLancasterGM, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded July 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2017</t>
+  </si>
+  <si>
+    <t>everyone from Manager down the line were helpful and extremely friendly it was one of the most pleasant stays I have ever had. We had no problems everything worked and was extremely clean the continental breakfast was fine two types of waffles along with normal eggs, meats and assorted offeringsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r499566321-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>499566321</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Time to relax</t>
+  </si>
+  <si>
+    <t>This is an elegant place, I enjoyed my stay.When we were tired it  was relaxing to come  and rest. The heat was over 100 degrees but you didn't feel it when you were resting. It is good to have a fresh cup of coffee ready for you and a bagel if you were hungry. We were there for a softball tournament.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an elegant place, I enjoyed my stay.When we were tired it  was relaxing to come  and rest. The heat was over 100 degrees but you didn't feel it when you were resting. It is good to have a fresh cup of coffee ready for you and a bagel if you were hungry. We were there for a softball tournament.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r495913074-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>495913074</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Best customer service and very neat amenities!</t>
+  </si>
+  <si>
+    <t>Our check in and check out experience was very smooth and swift. Staff are always courteous and professional! A great stay for a very reasonable price. The location is also great, near gas stations, fast foods and restaurants and grocery. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manny B, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Our check in and check out experience was very smooth and swift. Staff are always courteous and professional! A great stay for a very reasonable price. The location is also great, near gas stations, fast foods and restaurants and grocery. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r495722173-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>495722173</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Newer hotel</t>
+  </si>
+  <si>
+    <t>This hotel is located right off the highway and has a lot of food options within about 1mile radius. The hotel was recently built so the interior is really nice. The wifi here is great. Their high speed is actually high speed. The breakfast is just like every other best western, nothing special. They do have a happy hour from 5pm-7pm were you can go down stairs and they provide you to 2 free drinks soda/beer/wine. That's kinda nice. Get to socialize with the other guests. The rooms are nice, no complaints here. I usually stay here when I travel to this area for work. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>GM BWPlus D, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is located right off the highway and has a lot of food options within about 1mile radius. The hotel was recently built so the interior is really nice. The wifi here is great. Their high speed is actually high speed. The breakfast is just like every other best western, nothing special. They do have a happy hour from 5pm-7pm were you can go down stairs and they provide you to 2 free drinks soda/beer/wine. That's kinda nice. Get to socialize with the other guests. The rooms are nice, no complaints here. I usually stay here when I travel to this area for work. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r494906027-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>494906027</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Newer Hotel with all the extras</t>
+  </si>
+  <si>
+    <t>We stayed here for a conference and was very enjoyable. I hit the pool which was very refreshing. Overall a great place to stay. The breakfast is the normal flair but there is a great burger place just across the street for night munchiesMoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for a conference and was very enjoyable. I hit the pool which was very refreshing. Overall a great place to stay. The breakfast is the normal flair but there is a great burger place just across the street for night munchiesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r494731238-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>494731238</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Very Pleased</t>
+  </si>
+  <si>
+    <t>I oftentimes stay at BW motels, so I assumed that I would get a find a good room at a decent price.  What I found at Best Western Plus Desert Poppy Inn was more than I expected.  Everything was so clean and fresh.  The staff was courteous and helpful.  The room was extremely comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>GM BWPlus D, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>I oftentimes stay at BW motels, so I assumed that I would get a find a good room at a decent price.  What I found at Best Western Plus Desert Poppy Inn was more than I expected.  Everything was so clean and fresh.  The staff was courteous and helpful.  The room was extremely comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r494377618-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>494377618</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>This hotel was in great condition and staff were friendly. The suite was incredibly large and the bed and TV were great. We will definitely stay here again. I really can't find anything negative to say.MoreShow less</t>
+  </si>
+  <si>
+    <t>GM BWPlus D, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was in great condition and staff were friendly. The suite was incredibly large and the bed and TV were great. We will definitely stay here again. I really can't find anything negative to say.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r494146401-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>494146401</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>I was in Lancaster for a conference and had never stayed at a Best Western Plus. It was the same price as other comparable hotels, but it was a lot better than any others I had stayed at in this city. It was clean, the workers were friendly and the breakfast was excellent. This is where I will stay from now on.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in Lancaster for a conference and had never stayed at a Best Western Plus. It was the same price as other comparable hotels, but it was a lot better than any others I had stayed at in this city. It was clean, the workers were friendly and the breakfast was excellent. This is where I will stay from now on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r493128214-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>493128214</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>Wrestlemania</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here on two separate occasions. Both stays were very different.
+Our first stay in April was wonderful. We were working an event and found it easier to stay the two nights instead of driving from LA every morning. The staff was nice, the bed was so comfortable, breakfast was delicious. We couldn't wait for our next stay here. It was flawless!
+We had another event we were working and decided to treat ourselves instead of having to drive home and back up in the morning, we love our sleep. Our second stay started alright. The lady at the front was very nice and we were happy to get to our room. At about 11:30PM it sounded like people were running around and wrestling in the room directly above us. We gave it a little time and when it didn't stop my husband called the front desk. A gentleman picked up and told us that they just checked in and to allow some time for them to settle in. He was informed that this was not normal "settling in" noise and they were keeping us from sleeping. He told us that he would give them a call and ask them to keep it down. The noise never stopped and even got worse, now there was yelling and shouting (sounded like kids). My husband had enough, he got out of bed, dressed, and walked to the front...My husband and I stayed here on two separate occasions. Both stays were very different.Our first stay in April was wonderful. We were working an event and found it easier to stay the two nights instead of driving from LA every morning. The staff was nice, the bed was so comfortable, breakfast was delicious. We couldn't wait for our next stay here. It was flawless!We had another event we were working and decided to treat ourselves instead of having to drive home and back up in the morning, we love our sleep. Our second stay started alright. The lady at the front was very nice and we were happy to get to our room. At about 11:30PM it sounded like people were running around and wrestling in the room directly above us. We gave it a little time and when it didn't stop my husband called the front desk. A gentleman picked up and told us that they just checked in and to allow some time for them to settle in. He was informed that this was not normal "settling in" noise and they were keeping us from sleeping. He told us that he would give them a call and ask them to keep it down. The noise never stopped and even got worse, now there was yelling and shouting (sounded like kids). My husband had enough, he got out of bed, dressed, and walked to the front counter to talk to the gentleman personally about the issue (since calling him didn't seem to help). Same reply, he would call the room and ask them to quiet down. The noise lasted until just after 1:00AM. On top of this, the air conditioner couldn't keep up with the temperate in the room and I ended up hot and cold all night long. I would wake up and either put on or have to kick off the blankets. We got maybe only a few hours sleep.Breakfast was good in the morning, We can certainly tell which family kept us up last night. Their kids were running around and yelling, but the parents didn't seem to care as they were on their cell phones (and they had them on speaker!). I was glad when they left. We went back to our room and tried taking a nap before check-out, but that was a big failure.At check-out we were asked how our night was. Well, we told her everything. She apologized that we didn't get a good sleep and asked if we were offered a room change during the incident. We told her that we were not. She shrugged it off and asked us if we would like a receipt. We said yes and she handed it to us and told us to come back and stay with them sometime again. We don't think we'll ever stay here again. We were surprised that we weren't offered any discount off our bill or an complimentary night or something for their inability to control the noisy guests above us.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWestern L, Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here on two separate occasions. Both stays were very different.
+Our first stay in April was wonderful. We were working an event and found it easier to stay the two nights instead of driving from LA every morning. The staff was nice, the bed was so comfortable, breakfast was delicious. We couldn't wait for our next stay here. It was flawless!
+We had another event we were working and decided to treat ourselves instead of having to drive home and back up in the morning, we love our sleep. Our second stay started alright. The lady at the front was very nice and we were happy to get to our room. At about 11:30PM it sounded like people were running around and wrestling in the room directly above us. We gave it a little time and when it didn't stop my husband called the front desk. A gentleman picked up and told us that they just checked in and to allow some time for them to settle in. He was informed that this was not normal "settling in" noise and they were keeping us from sleeping. He told us that he would give them a call and ask them to keep it down. The noise never stopped and even got worse, now there was yelling and shouting (sounded like kids). My husband had enough, he got out of bed, dressed, and walked to the front...My husband and I stayed here on two separate occasions. Both stays were very different.Our first stay in April was wonderful. We were working an event and found it easier to stay the two nights instead of driving from LA every morning. The staff was nice, the bed was so comfortable, breakfast was delicious. We couldn't wait for our next stay here. It was flawless!We had another event we were working and decided to treat ourselves instead of having to drive home and back up in the morning, we love our sleep. Our second stay started alright. The lady at the front was very nice and we were happy to get to our room. At about 11:30PM it sounded like people were running around and wrestling in the room directly above us. We gave it a little time and when it didn't stop my husband called the front desk. A gentleman picked up and told us that they just checked in and to allow some time for them to settle in. He was informed that this was not normal "settling in" noise and they were keeping us from sleeping. He told us that he would give them a call and ask them to keep it down. The noise never stopped and even got worse, now there was yelling and shouting (sounded like kids). My husband had enough, he got out of bed, dressed, and walked to the front counter to talk to the gentleman personally about the issue (since calling him didn't seem to help). Same reply, he would call the room and ask them to quiet down. The noise lasted until just after 1:00AM. On top of this, the air conditioner couldn't keep up with the temperate in the room and I ended up hot and cold all night long. I would wake up and either put on or have to kick off the blankets. We got maybe only a few hours sleep.Breakfast was good in the morning, We can certainly tell which family kept us up last night. Their kids were running around and yelling, but the parents didn't seem to care as they were on their cell phones (and they had them on speaker!). I was glad when they left. We went back to our room and tried taking a nap before check-out, but that was a big failure.At check-out we were asked how our night was. Well, we told her everything. She apologized that we didn't get a good sleep and asked if we were offered a room change during the incident. We told her that we were not. She shrugged it off and asked us if we would like a receipt. We said yes and she handed it to us and told us to come back and stay with them sometime again. We don't think we'll ever stay here again. We were surprised that we weren't offered any discount off our bill or an complimentary night or something for their inability to control the noisy guests above us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r492095768-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>492095768</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>BW Plus Desert Poppy Inn</t>
+  </si>
+  <si>
+    <t>BW Plus Desert Poppy Inn is a GREAT hotel &amp; the staff REALLY make you feel welcomed...like you are part of the family!!! There are MANY guests (including us) who always stay here when we are in the area. :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>GM BWPlus D, Owner at Best Western Plus Desert Poppy Inn, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>BW Plus Desert Poppy Inn is a GREAT hotel &amp; the staff REALLY make you feel welcomed...like you are part of the family!!! There are MANY guests (including us) who always stay here when we are in the area. :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r491388844-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>491388844</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Heading north</t>
+  </si>
+  <si>
+    <t>Picked a hotel convenient to watching the NBA Championship game.  BW was easy access from freeway, and had good reviews.  Fairly new hotel, nice staff, very attendant staff in breakfast room, and well appointed rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>GM BWPlus D, Owner at Best Western Plus Desert Poppy Inn, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Picked a hotel convenient to watching the NBA Championship game.  BW was easy access from freeway, and had good reviews.  Fairly new hotel, nice staff, very attendant staff in breakfast room, and well appointed rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r490003973-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>490003973</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Best kept secret!</t>
+  </si>
+  <si>
+    <t>Best kept secret in the Antelope Valley. Clean establishment personal employees and easy travel in and out! I highly recommend it for family and friends the only issue I had was the toilet was clogged but fixed!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Best kept secret in the Antelope Valley. Clean establishment personal employees and easy travel in and out! I highly recommend it for family and friends the only issue I had was the toilet was clogged but fixed!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r489175645-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>489175645</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Great Bed &amp; Breakfast</t>
+  </si>
+  <si>
+    <t>Hotel was very clean and spacious, large parking for our 4X4 Dodge Ram and cargo trailer. Lobby was nice and grand, breakfast was overwhelming many options, all types of food and non-dairy milk. This is why i love Best Western, looking out for us lactose and tolerant guests. Plus amazing bed!MoreShow less</t>
+  </si>
+  <si>
+    <t>GM BWPlus D, Owner at Best Western Plus Desert Poppy Inn, responded to this reviewResponded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Hotel was very clean and spacious, large parking for our 4X4 Dodge Ram and cargo trailer. Lobby was nice and grand, breakfast was overwhelming many options, all types of food and non-dairy milk. This is why i love Best Western, looking out for us lactose and tolerant guests. Plus amazing bed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r488912989-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>488912989</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Wonderful short stay</t>
+  </si>
+  <si>
+    <t>Hotel was clean, well located, had a great service ethic, the breakfast was tasty and the internet more than fast enough. A great value. The lication was very convenient to the Lancaster Jethawks minor league baseball stadium. MoreShow less</t>
+  </si>
+  <si>
+    <t>GM BWPlus D, Guest Relations Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Hotel was clean, well located, had a great service ethic, the breakfast was tasty and the internet more than fast enough. A great value. The lication was very convenient to the Lancaster Jethawks minor league baseball stadium. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r483936944-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>483936944</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>Amazingly Helpful and Friendly Staff; Great Rooms; Good Food, Great Location - Best Western Lancaster</t>
+  </si>
+  <si>
+    <t>We stayed again at the Best Western Lancaster. This time we were there mid week so they have a social reception in the evening.  The wine and tortilla chips with chili and cheese were very good. The staff member who does the social hour is "My Hotel Employee of the Year".  She is amazing! and so friendly and nice. After driving many ours in the car, this made for a great first couple of hours at the hotel.  We then enjoyed the swimming pool.
+The location of the hotel is very close to the freeway.  If you drive north two exits, you will be on my favorite Road in the US - the Musical Highway.  its a short distance but its a must go to for me each time in Lancaster.  There is a minor league baseball park, huge movie theater (with good food) and several places to dine within a couple of minutes drive of the Best Western.  There is also a gas station adjacent which makes it perfect to fill up on gas for the drive the next day.
+In terms of the room, since its a newer Best Western, its a great stay.  The king size bed was very comfortable.  The chair, desk and TV are all nice. There is a coffee making area, refrigerator and microwave. Bathroom is nice.
+Best Western has an elevator.
+We liked the breakfast too in the very cheerful area.  Good variety...We stayed again at the Best Western Lancaster. This time we were there mid week so they have a social reception in the evening.  The wine and tortilla chips with chili and cheese were very good. The staff member who does the social hour is "My Hotel Employee of the Year".  She is amazing! and so friendly and nice. After driving many ours in the car, this made for a great first couple of hours at the hotel.  We then enjoyed the swimming pool.The location of the hotel is very close to the freeway.  If you drive north two exits, you will be on my favorite Road in the US - the Musical Highway.  its a short distance but its a must go to for me each time in Lancaster.  There is a minor league baseball park, huge movie theater (with good food) and several places to dine within a couple of minutes drive of the Best Western.  There is also a gas station adjacent which makes it perfect to fill up on gas for the drive the next day.In terms of the room, since its a newer Best Western, its a great stay.  The king size bed was very comfortable.  The chair, desk and TV are all nice. There is a coffee making area, refrigerator and microwave. Bathroom is nice.Best Western has an elevator.We liked the breakfast too in the very cheerful area.  Good variety of breakfast items from cereal to scrambled eggs to make your own waffles, juice, coffee, and variety of sides.The entire staff is wonderful. Housekeepers do a fantastic job.The hotel services both business and leisure travel and it works wells for both.Its a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>GM BWPlus D, Public Relations Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>We stayed again at the Best Western Lancaster. This time we were there mid week so they have a social reception in the evening.  The wine and tortilla chips with chili and cheese were very good. The staff member who does the social hour is "My Hotel Employee of the Year".  She is amazing! and so friendly and nice. After driving many ours in the car, this made for a great first couple of hours at the hotel.  We then enjoyed the swimming pool.
+The location of the hotel is very close to the freeway.  If you drive north two exits, you will be on my favorite Road in the US - the Musical Highway.  its a short distance but its a must go to for me each time in Lancaster.  There is a minor league baseball park, huge movie theater (with good food) and several places to dine within a couple of minutes drive of the Best Western.  There is also a gas station adjacent which makes it perfect to fill up on gas for the drive the next day.
+In terms of the room, since its a newer Best Western, its a great stay.  The king size bed was very comfortable.  The chair, desk and TV are all nice. There is a coffee making area, refrigerator and microwave. Bathroom is nice.
+Best Western has an elevator.
+We liked the breakfast too in the very cheerful area.  Good variety...We stayed again at the Best Western Lancaster. This time we were there mid week so they have a social reception in the evening.  The wine and tortilla chips with chili and cheese were very good. The staff member who does the social hour is "My Hotel Employee of the Year".  She is amazing! and so friendly and nice. After driving many ours in the car, this made for a great first couple of hours at the hotel.  We then enjoyed the swimming pool.The location of the hotel is very close to the freeway.  If you drive north two exits, you will be on my favorite Road in the US - the Musical Highway.  its a short distance but its a must go to for me each time in Lancaster.  There is a minor league baseball park, huge movie theater (with good food) and several places to dine within a couple of minutes drive of the Best Western.  There is also a gas station adjacent which makes it perfect to fill up on gas for the drive the next day.In terms of the room, since its a newer Best Western, its a great stay.  The king size bed was very comfortable.  The chair, desk and TV are all nice. There is a coffee making area, refrigerator and microwave. Bathroom is nice.Best Western has an elevator.We liked the breakfast too in the very cheerful area.  Good variety of breakfast items from cereal to scrambled eggs to make your own waffles, juice, coffee, and variety of sides.The entire staff is wonderful. Housekeepers do a fantastic job.The hotel services both business and leisure travel and it works wells for both.Its a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r482971035-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>482971035</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>2 Week stay at Best Western Hotel</t>
+  </si>
+  <si>
+    <t>The entire facility was always very clean and the Staff was fantastic. Breakfast varied from day to day, but was consistently delicious every day. I throughly enjoyed my stay. It was even warm enough to use the pool. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>GM BWPlus D, Public Relations Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>The entire facility was always very clean and the Staff was fantastic. Breakfast varied from day to day, but was consistently delicious every day. I throughly enjoyed my stay. It was even warm enough to use the pool. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r482928199-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>482928199</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Very Good Place</t>
+  </si>
+  <si>
+    <t>We stayed one night.  The hotel in it self was great.  We didn't encounter any issues whatsoever. It was as close as we could get to Edwards Air Force base. There were food locations within a rock throw.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night.  The hotel in it self was great.  We didn't encounter any issues whatsoever. It was as close as we could get to Edwards Air Force base. There were food locations within a rock throw.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r479375830-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>479375830</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Good stop over</t>
+  </si>
+  <si>
+    <t>On a late arriving flight to LAX and with 300 miles to drive to home, this property was great to get caught up on sleep after flying 17+ hours.  Bed was great and the overall experience was good. Easy off-on freeway access.MoreShow less</t>
+  </si>
+  <si>
+    <t>GM BWPlus D, Public Relations Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded April 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2017</t>
+  </si>
+  <si>
+    <t>On a late arriving flight to LAX and with 300 miles to drive to home, this property was great to get caught up on sleep after flying 17+ hours.  Bed was great and the overall experience was good. Easy off-on freeway access.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r478687232-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>478687232</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Very Modern Hotel</t>
+  </si>
+  <si>
+    <t>We came to see the Poppy's and needed a place to stay. This hotel is awesome. Super modern and clean. Everything looked great and our room was very spacious. I will be staying here from now on for all my Lancaster Palmdale visits. Best Hotel in AV.MoreShow less</t>
+  </si>
+  <si>
+    <t>We came to see the Poppy's and needed a place to stay. This hotel is awesome. Super modern and clean. Everything looked great and our room was very spacious. I will be staying here from now on for all my Lancaster Palmdale visits. Best Hotel in AV.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r477264913-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>477264913</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Unexpectedly nice for a Best Western</t>
+  </si>
+  <si>
+    <t>I don't usually stay at Best Western hotels, since I haven't been too impressed with them. However, after having read the many good reviews of this place, I thought I'd try it. Very impressed. Nice clean hotel. Great location, close to freeway and fast food (across the street). Although there seemed to be a lot of teenagers here when we checked in (church group, per front desk), the desk noted our reaction to so many kids, and thoughtfully put us on a different floor than they were in. (nice touch) The room was very spacious, quiet, and clean. Nice large counter in the bathroom to put all our toiletries on. There was a nice evening happy hour with free soda or beer (!) and nachos - yum! The included breakfast the next morning was also very good - good selection of hot items (oatmeal, waffles - in 2 sizes, no less!), and cold items too. I would stay at many more Best Western hotels if they were all as nice as this one!MoreShow less</t>
+  </si>
+  <si>
+    <t>I don't usually stay at Best Western hotels, since I haven't been too impressed with them. However, after having read the many good reviews of this place, I thought I'd try it. Very impressed. Nice clean hotel. Great location, close to freeway and fast food (across the street). Although there seemed to be a lot of teenagers here when we checked in (church group, per front desk), the desk noted our reaction to so many kids, and thoughtfully put us on a different floor than they were in. (nice touch) The room was very spacious, quiet, and clean. Nice large counter in the bathroom to put all our toiletries on. There was a nice evening happy hour with free soda or beer (!) and nachos - yum! The included breakfast the next morning was also very good - good selection of hot items (oatmeal, waffles - in 2 sizes, no less!), and cold items too. I would stay at many more Best Western hotels if they were all as nice as this one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r475829985-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>475829985</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>We stayed here while we visited the Poppy reserve. Location was perfect, rooms clean and comfortable, easy drive to the Boulevard District for good food. We had a suite and loved the comfort. Breakfast was an added plus. Not excellent, but more than adequate. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here while we visited the Poppy reserve. Location was perfect, rooms clean and comfortable, easy drive to the Boulevard District for good food. We had a suite and loved the comfort. Breakfast was an added plus. Not excellent, but more than adequate. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r475991861-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>475991861</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>A clean, fairly new property with good amenities.  Large room and comfortable bed.  Good breakfast choices.  Staff polite and helpful.  Good location relative to town center and located on the road to the Antelope Valley Poppy Reserve.MoreShow less</t>
+  </si>
+  <si>
+    <t>A clean, fairly new property with good amenities.  Large room and comfortable bed.  Good breakfast choices.  Staff polite and helpful.  Good location relative to town center and located on the road to the Antelope Valley Poppy Reserve.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r475991993-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>475991993</t>
+  </si>
+  <si>
+    <t>Professional and well run</t>
+  </si>
+  <si>
+    <t>This hotels seems to show a level of care and pride a step above most places. Well managed hotel where staff work well together and are very helpful. It's not often one will go out of there way to compliment hotel staff as we usually take it for granted. But, this was a step above.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotels seems to show a level of care and pride a step above most places. Well managed hotel where staff work well together and are very helpful. It's not often one will go out of there way to compliment hotel staff as we usually take it for granted. But, this was a step above.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r472923506-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>472923506</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Lancaster CA</t>
+  </si>
+  <si>
+    <t>Convenient location, reasonable price. Relatively new property. Good beds, not crazy about the pillows. Overall a very good choice. Breakfast buffet with good coffee. . . Very important! Easy access on/off freeway with good soundproofing.MoreShow less</t>
+  </si>
+  <si>
+    <t>GM BWPlus D, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded April 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2017</t>
+  </si>
+  <si>
+    <t>Convenient location, reasonable price. Relatively new property. Good beds, not crazy about the pillows. Overall a very good choice. Breakfast buffet with good coffee. . . Very important! Easy access on/off freeway with good soundproofing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r472922860-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>472922860</t>
+  </si>
+  <si>
+    <t>new hotel but walls are thin</t>
+  </si>
+  <si>
+    <t>We are a retired couple who selected this hotel because it's new. The service was friendly and attentive. The breakfast was 'meh'. The rooms are not well soundproofed so we heard our neighbors thumping and moving furniture. Well, maybe not literally, but it sounded that way.  MoreShow less</t>
+  </si>
+  <si>
+    <t>GM BWPlus D, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2017</t>
+  </si>
+  <si>
+    <t>We are a retired couple who selected this hotel because it's new. The service was friendly and attentive. The breakfast was 'meh'. The rooms are not well soundproofed so we heard our neighbors thumping and moving furniture. Well, maybe not literally, but it sounded that way.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r472758276-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>472758276</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff, great place to stay</t>
+  </si>
+  <si>
+    <t>We were delighted with the front desk service we got from Helen and Mel.  Smooth check in, helpful directions to get around town.  Rooms were lovely and quiet. I want to duplicate their bathrooms in my own house! Breakfast was very good, plenty of seating.  Really liked the availability of the microwave in the breakfast area as I like my food really hot.       The Desert Poppy Inn has been the best BW I have stayed at in California, and I spend over 50 nights a year @ Best Westerns. Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>GM BWPlus D, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded April 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2017</t>
+  </si>
+  <si>
+    <t>We were delighted with the front desk service we got from Helen and Mel.  Smooth check in, helpful directions to get around town.  Rooms were lovely and quiet. I want to duplicate their bathrooms in my own house! Breakfast was very good, plenty of seating.  Really liked the availability of the microwave in the breakfast area as I like my food really hot.       The Desert Poppy Inn has been the best BW I have stayed at in California, and I spend over 50 nights a year @ Best Westerns. Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r471962066-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>471962066</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicest Best Western! </t>
+  </si>
+  <si>
+    <t>This is the nicest Best Western we've ever stayed in!  This Best Western is newer and nicely maintained.  Every Best Western we've stayed in before was an old Motel 6-type motel that had been converted into a Best Western, but none of them were nice or well maintained.  My husband and I spent 2 nights in a king room.  The room was good sized.  It was clean when we checked in and when we returned at the end of the second day.  The bed was very comfortable.  The only negative thing, and it's just a personal preference, is that the pillows are so soft it's like sleeping on a cotton ball with no neck support.  And they don't have firmer pillows.  But it's a minor annoyance.  The shower is good, and there's plenty of counter space in the bathroom.  The hot tub is great.  Breakfast is the usual hotel breakfast items.  The breakfast lady did a good job of keeping the food restocked.  She even went around to every table asking if she could get anyone coffee, and disposing of our plates when we finished.  Neither of these things have EVER happened at any other hotel breakfast before.  We would definitely stay here again if we're ever back in Lancaster.  MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the nicest Best Western we've ever stayed in!  This Best Western is newer and nicely maintained.  Every Best Western we've stayed in before was an old Motel 6-type motel that had been converted into a Best Western, but none of them were nice or well maintained.  My husband and I spent 2 nights in a king room.  The room was good sized.  It was clean when we checked in and when we returned at the end of the second day.  The bed was very comfortable.  The only negative thing, and it's just a personal preference, is that the pillows are so soft it's like sleeping on a cotton ball with no neck support.  And they don't have firmer pillows.  But it's a minor annoyance.  The shower is good, and there's plenty of counter space in the bathroom.  The hot tub is great.  Breakfast is the usual hotel breakfast items.  The breakfast lady did a good job of keeping the food restocked.  She even went around to every table asking if she could get anyone coffee, and disposing of our plates when we finished.  Neither of these things have EVER happened at any other hotel breakfast before.  We would definitely stay here again if we're ever back in Lancaster.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r471693472-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>471693472</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Went to see the Poppy Reserve - this hotel is located directly off highway on the same street as the reserve.   Very pleasant staff. Great breakfast with room.  Hotel is new with comfy beds!  It's close to the highway but we xxx not hear any traffic noise.  Would recommend this hotel with very helpful staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Went to see the Poppy Reserve - this hotel is located directly off highway on the same street as the reserve.   Very pleasant staff. Great breakfast with room.  Hotel is new with comfy beds!  It's close to the highway but we xxx not hear any traffic noise.  Would recommend this hotel with very helpful staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r471790501-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>471790501</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new.  The room was extremely comfortable and quiet.  The breakfast area is well maintained, spacious, and had lots of choices for hot and cold breakfast items.   The exercise room equipment works very well .  Hotel staff was very helpful in making recommendations for dinner which turned out to be an excellent place to eat as well.  We will definitely stay here again if we are in the Lancaster area.MoreShow less</t>
+  </si>
+  <si>
+    <t>GM BWPlus D, Public Relations Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded May 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new.  The room was extremely comfortable and quiet.  The breakfast area is well maintained, spacious, and had lots of choices for hot and cold breakfast items.   The exercise room equipment works very well .  Hotel staff was very helpful in making recommendations for dinner which turned out to be an excellent place to eat as well.  We will definitely stay here again if we are in the Lancaster area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r470453022-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>470453022</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Excellent Staff, Cleaniness, &amp; Recommended</t>
+  </si>
+  <si>
+    <t>Great staff, very personable and helpful. Amazing room, felt brand new, breakfast had me overwhelmed with the options (Good Thing) And a nice warm pool also. Cant beat the quality for this Best Western, this is why they call is a Plus!MoreShow less</t>
+  </si>
+  <si>
+    <t>Helen S, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Great staff, very personable and helpful. Amazing room, felt brand new, breakfast had me overwhelmed with the options (Good Thing) And a nice warm pool also. Cant beat the quality for this Best Western, this is why they call is a Plus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r468058881-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>468058881</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Business stay in Lancaster</t>
+  </si>
+  <si>
+    <t>This is a newer hotel in the area. The rooms were very clean and nicely decorated. The front desk staff were outstanding and treated me like an old friend coming to visit. The breakfast included in the morning was fresh and filling. I will definitely stay here again. The only downside is that there is a convenience store at the far end of the parking lot that attracts some questionable people. Most of the times that I looked out the window there was a sherif deputy parked there so it seems like they are working on the situation. MoreShow less</t>
+  </si>
+  <si>
+    <t>Helen S, Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>This is a newer hotel in the area. The rooms were very clean and nicely decorated. The front desk staff were outstanding and treated me like an old friend coming to visit. The breakfast included in the morning was fresh and filling. I will definitely stay here again. The only downside is that there is a convenience store at the far end of the parking lot that attracts some questionable people. Most of the times that I looked out the window there was a sherif deputy parked there so it seems like they are working on the situation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r462620618-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>462620618</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>We booked a normal twin bed room but they gave us a room with a disabled toilet/bath. The large room might be larger than others since it had a little sitting area. Very clean. I found the free-standing wardrobe a little strange as all the hotels I stayed on this fortnight's trip (all around the same price point) had built-in wardrobes. Room was reasonably insulated from internal and external noise, even though the Interstate is just a stone's throw. Breakfast was average. In-n-Out Burger across the road. Will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>We booked a normal twin bed room but they gave us a room with a disabled toilet/bath. The large room might be larger than others since it had a little sitting area. Very clean. I found the free-standing wardrobe a little strange as all the hotels I stayed on this fortnight's trip (all around the same price point) had built-in wardrobes. Room was reasonably insulated from internal and external noise, even though the Interstate is just a stone's throw. Breakfast was average. In-n-Out Burger across the road. Will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r454635511-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>454635511</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>New and shiny</t>
+  </si>
+  <si>
+    <t>I'm a tough critic and I really can't find much negative to say about this hotel.  No one wants to hear the positive and great stuff, they want to know what the problems are.  This hotel seems brand new, even though it is way to the far North of Lancaster.  About the only problem I can mention is that it took forever for the TV to load channels when you switched them.  That was very annoying, but I can't rate the hotel less than 5 stars because of that minor point.  Even the "fake" scrambled eggs weren't bad and the "powdered" orange juice out of the machine wasn't bad either.  Very clean and shiny and I'd stay here again if I was in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2017</t>
+  </si>
+  <si>
+    <t>I'm a tough critic and I really can't find much negative to say about this hotel.  No one wants to hear the positive and great stuff, they want to know what the problems are.  This hotel seems brand new, even though it is way to the far North of Lancaster.  About the only problem I can mention is that it took forever for the TV to load channels when you switched them.  That was very annoying, but I can't rate the hotel less than 5 stars because of that minor point.  Even the "fake" scrambled eggs weren't bad and the "powdered" orange juice out of the machine wasn't bad either.  Very clean and shiny and I'd stay here again if I was in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r453818855-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>453818855</t>
+  </si>
+  <si>
+    <t>01/21/2017</t>
+  </si>
+  <si>
+    <t>Poor customer assistance at front desk reservation</t>
+  </si>
+  <si>
+    <t>Lady who took my reservation gave me a diff. rate than what she told me over the phone.  She was a bit rude and unprofessional. I stay here whenever there isnt rooms available at the Hilton bout a block away at the same price rangeMoreShow less</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Lady who took my reservation gave me a diff. rate than what she told me over the phone.  She was a bit rude and unprofessional. I stay here whenever there isnt rooms available at the Hilton bout a block away at the same price rangeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r453720735-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>453720735</t>
+  </si>
+  <si>
+    <t>01/20/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Staff</t>
+  </si>
+  <si>
+    <t>I have been staying at the hotel weekly related to work schedule for the past 3 months. The staff is always kind and friendly. Great service 100% of the time. Although there are other hotels in the area I prefer to stay at the Lancaster Location because the staff makes my stay much more pleasant. I feel safe and valued.MoreShow less</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2017</t>
+  </si>
+  <si>
+    <t>I have been staying at the hotel weekly related to work schedule for the past 3 months. The staff is always kind and friendly. Great service 100% of the time. Although there are other hotels in the area I prefer to stay at the Lancaster Location because the staff makes my stay much more pleasant. I feel safe and valued.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r447191760-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>447191760</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Although close to the freeway, it is still quiet.  We had a suite with 2 very comfortable queen beds.  The room is huge and includes a sofa and chair.  The facility is very clean, with friendly staff and good breakfast. The breakfast closes at 9:00 am, which was a bit earlier than we would have liked.  The price is very fair.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Although close to the freeway, it is still quiet.  We had a suite with 2 very comfortable queen beds.  The room is huge and includes a sofa and chair.  The facility is very clean, with friendly staff and good breakfast. The breakfast closes at 9:00 am, which was a bit earlier than we would have liked.  The price is very fair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r443597024-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>443597024</t>
+  </si>
+  <si>
+    <t>12/11/2016</t>
+  </si>
+  <si>
+    <t>Cleanest, Friendliest Hotel in the Antelope Valley.</t>
+  </si>
+  <si>
+    <t>Upon arrival I was greeted by Jennifer, who embodies both professionalism and a courteous demeanor. Her smile is contageous. The room was clean and Plush. The hotel is quiet and has the perfect ambience and all the amenities, whether you are there for business or pleasure. At check out, again I was helped by Jennifer who I think is the most, to say the least. Over all, I had a very pleasant stay and will be back next time I'm in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Upon arrival I was greeted by Jennifer, who embodies both professionalism and a courteous demeanor. Her smile is contageous. The room was clean and Plush. The hotel is quiet and has the perfect ambience and all the amenities, whether you are there for business or pleasure. At check out, again I was helped by Jennifer who I think is the most, to say the least. Over all, I had a very pleasant stay and will be back next time I'm in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r442370291-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>442370291</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>Great spot with friendly, happy staff</t>
+  </si>
+  <si>
+    <t>We spent 12 days in this hotel - nice rooms, great bed, fridge and microwave in room and good hot breakfasts. It's just off the 14 freeway but road noise wasn't an issue. Highly recommended. The staff were a very cheery crew!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>We spent 12 days in this hotel - nice rooms, great bed, fridge and microwave in room and good hot breakfasts. It's just off the 14 freeway but road noise wasn't an issue. Highly recommended. The staff were a very cheery crew!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r429563704-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>429563704</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Best customer service</t>
+  </si>
+  <si>
+    <t>The staff are great professionals and courteous. The rooms are spacious and very clean, very modern. This is the best hotel staff i have ever come across. The facility was amazing and the continental breakfast was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Melissa M, Front Office Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>The staff are great professionals and courteous. The rooms are spacious and very clean, very modern. This is the best hotel staff i have ever come across. The facility was amazing and the continental breakfast was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r428920471-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>428920471</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Friendly Service Making The Stay More Enjoyable</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel as we moved our daughter to college in town.  The staff made us all feel welcome.  The night staff were accommodating for us to utilize their dining area after hours to play games and visit with family staying at another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel as we moved our daughter to college in town.  The staff made us all feel welcome.  The night staff were accommodating for us to utilize their dining area after hours to play games and visit with family staying at another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r426914022-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>426914022</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Very clean comfortable and convenient location</t>
+  </si>
+  <si>
+    <t>Friendly staff, comfortable bed, great variety for breakfast, internet was a bit slow. I would definitely stay here again.  I find it interesting that internet price cannot be matched by hotel staff, eventhough it is Best Western site.   No hassle checking  and checkout.......MoreShow less</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded October 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2016</t>
+  </si>
+  <si>
+    <t>Friendly staff, comfortable bed, great variety for breakfast, internet was a bit slow. I would definitely stay here again.  I find it interesting that internet price cannot be matched by hotel staff, eventhough it is Best Western site.   No hassle checking  and checkout.......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r422515521-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>422515521</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Great new option in town</t>
+  </si>
+  <si>
+    <t>We moved from this area about 7 years ago, but return to visit family and friends. Very pleased to have a new option in a great location for our visit. Right off the freeway yet far enough to be quiet.  In n Out Burger right across the street is a plus as well as Highway Patrol office making it a safe area. Very clean and comfortable with a nice breakfast buffet.  All the Employees were very polite and friendly, especially Mel. She checked us in and was very welcoming. She asked how our stay was and if we needed anything each time we came back to the hotel.We will definitely stay here on our future visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>We moved from this area about 7 years ago, but return to visit family and friends. Very pleased to have a new option in a great location for our visit. Right off the freeway yet far enough to be quiet.  In n Out Burger right across the street is a plus as well as Highway Patrol office making it a safe area. Very clean and comfortable with a nice breakfast buffet.  All the Employees were very polite and friendly, especially Mel. She checked us in and was very welcoming. She asked how our stay was and if we needed anything each time we came back to the hotel.We will definitely stay here on our future visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r421717929-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>421717929</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>New and great</t>
+  </si>
+  <si>
+    <t>this is a great new hotel. Friendly staff and excellent breakfast.The location is good since it right off the freeway and it has all the amenities you need. I would recommend this hotel to everyone and I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>this is a great new hotel. Friendly staff and excellent breakfast.The location is good since it right off the freeway and it has all the amenities you need. I would recommend this hotel to everyone and I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r420802427-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>420802427</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Open Road West Rally</t>
+  </si>
+  <si>
+    <t>A very comfortable property. Clean, well taken care of with excellent beds and very quiet rooms. Breakfast service was better than average. The only fault I can find is not with the hotel but with the City of Lancaster having concrete medians on the streets on two sides of the hotel and No U-turn signs at every corner makes it difficult to enter the property if you are on the opposite side of the streetlMoreShow less</t>
+  </si>
+  <si>
+    <t>A very comfortable property. Clean, well taken care of with excellent beds and very quiet rooms. Breakfast service was better than average. The only fault I can find is not with the hotel but with the City of Lancaster having concrete medians on the streets on two sides of the hotel and No U-turn signs at every corner makes it difficult to enter the property if you are on the opposite side of the streetlMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r419275035-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>419275035</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Stayed here for a night and was pleasantly surprised of the outside look. Due to the nature of my work we are set up for early check in and the woman at the front desk was nice and checked me right in. Requested a first floor room and had no issues getting it. Thanks for a nice stay while working out of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for a night and was pleasantly surprised of the outside look. Due to the nature of my work we are set up for early check in and the woman at the front desk was nice and checked me right in. Requested a first floor room and had no issues getting it. Thanks for a nice stay while working out of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r418804247-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>418804247</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Jim's Retirement</t>
+  </si>
+  <si>
+    <t>I had to visit a dear friend that was retiring from his job of 30 years. This hotel was convenient for the access of the freeway, area restaurants,  and the best for my wallet. The staff was accommodating,MoreShow less</t>
+  </si>
+  <si>
+    <t>I had to visit a dear friend that was retiring from his job of 30 years. This hotel was convenient for the access of the freeway, area restaurants,  and the best for my wallet. The staff was accommodating,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r418166223-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>418166223</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Great New Best Western Location</t>
+  </si>
+  <si>
+    <t>Recently stayed at this hotel while in Lancaster for business.  I will plan to return to this location in the future, they do a great job of hosting and it is a nice hotel,  only a year or two old so facility is "very clean and crisp" hotel staff does a great job of hosting guests!MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently stayed at this hotel while in Lancaster for business.  I will plan to return to this location in the future, they do a great job of hosting and it is a nice hotel,  only a year or two old so facility is "very clean and crisp" hotel staff does a great job of hosting guests!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r412984032-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>412984032</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>The staff were not only friendly but INCREDIBLY helpful!!!  The PERFECT place to stay if you're in town to see the Lancaster Jethawks at the Hangar!  If you are, call directly and book with the front desk!MoreShow less</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>The staff were not only friendly but INCREDIBLY helpful!!!  The PERFECT place to stay if you're in town to see the Lancaster Jethawks at the Hangar!  If you are, call directly and book with the front desk!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r412421152-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>412421152</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place :) </t>
+  </si>
+  <si>
+    <t>I have stayed here twice It's is super clean , front desk employees always have smiles and welcome us every time.     Jennifer at the front desk and Mary  was awesome toThe breakfast is great my grandson gives it two thumbs up I would love for upper management to maybe do or leave a smaller breakfast for us late risers. No worries.  I understand.  It's as nice as the first year I stayed. So maintenance staff has definitely done a great job!!!  Anna has a great staff I don't know who did my room and it sounds like it's been a couple of people at their outstanding and we can't forget Irvine for maintenance what a great guyIf you are in Lancaster please check them out.  Great job for all that you do   Your guest for the Lancaster area Tracy CreasonMoreShow less</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed here twice It's is super clean , front desk employees always have smiles and welcome us every time.     Jennifer at the front desk and Mary  was awesome toThe breakfast is great my grandson gives it two thumbs up I would love for upper management to maybe do or leave a smaller breakfast for us late risers. No worries.  I understand.  It's as nice as the first year I stayed. So maintenance staff has definitely done a great job!!!  Anna has a great staff I don't know who did my room and it sounds like it's been a couple of people at their outstanding and we can't forget Irvine for maintenance what a great guyIf you are in Lancaster please check them out.  Great job for all that you do   Your guest for the Lancaster area Tracy CreasonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r409833401-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>409833401</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>When we travel we usually book rooms at a Best Western.  This particular hotel is probably the best one we have stayed at.  We have stayed here before as we have family that live in Lancaster. Would definitely recommend this Best Western to anyone needing a place to stay in or near Lancaster.MoreShow less</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded September 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2016</t>
+  </si>
+  <si>
+    <t>When we travel we usually book rooms at a Best Western.  This particular hotel is probably the best one we have stayed at.  We have stayed here before as we have family that live in Lancaster. Would definitely recommend this Best Western to anyone needing a place to stay in or near Lancaster.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r399056753-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>399056753</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Too Much for what you get</t>
+  </si>
+  <si>
+    <t>Lousy night sleep. Bed too hard. Hotel full of noisy contractors. Only one ice machine working on 3rd floor and was always out. Complained about the noise above us. Nothing happened. Started back up at 4-5:30am. Paid $150 and was not impressed. I had to wait 30 minutes while checking in as the people in front of me had the clerk emailing their home office back and forth while my check in took less than 1 minute. This was our 3rd stay here but for the price I think we'll look elsewhere next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Lousy night sleep. Bed too hard. Hotel full of noisy contractors. Only one ice machine working on 3rd floor and was always out. Complained about the noise above us. Nothing happened. Started back up at 4-5:30am. Paid $150 and was not impressed. I had to wait 30 minutes while checking in as the people in front of me had the clerk emailing their home office back and forth while my check in took less than 1 minute. This was our 3rd stay here but for the price I think we'll look elsewhere next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r393095607-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>393095607</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Best Western Plus Desert Poppy Inn, Lancaster</t>
+  </si>
+  <si>
+    <t>Nice new location with friendly staff and a nice fitness center. Rooms are huge with working air conditioning and internet. The hotel lobby and hallway were air-conditioned too. Very nice to step in from the heat. Breakfast area is very big with big screen television for news updates. Clean facility right off the freeway. I like it!MoreShow less</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Nice new location with friendly staff and a nice fitness center. Rooms are huge with working air conditioning and internet. The hotel lobby and hallway were air-conditioned too. Very nice to step in from the heat. Breakfast area is very big with big screen television for news updates. Clean facility right off the freeway. I like it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r389621381-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>389621381</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Visiting Family</t>
+  </si>
+  <si>
+    <t>The hotel was clean, safe, and comfortable. I would definitely stay here again.  In addition to the location the location was conveniently located near the freeway and included amenities such as a gym, pool, and breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>GM BWPlus D, Guest Relations Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded May 20, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was clean, safe, and comfortable. I would definitely stay here again.  In addition to the location the location was conveniently located near the freeway and included amenities such as a gym, pool, and breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r383330900-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>383330900</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel in the AV</t>
+  </si>
+  <si>
+    <t>I stayed here to attend a ceremony being held at the AV fairgrounds. This hotel is just 1 exit S of the fairgrounds, and across the freeway from the baseball stadium. Its close to downtown Lancaster, a short trip from Palmdale and close to shops and movie theaters. Being brand new, the property is in excellent shape. The staff are super friendly and make you feel right at home. Though most of my activities are typically in Palmdale when I visit the area, I would definitely consider staying here in the future. A special shout out to Rosemary for her excellent hospitality!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I stayed here to attend a ceremony being held at the AV fairgrounds. This hotel is just 1 exit S of the fairgrounds, and across the freeway from the baseball stadium. Its close to downtown Lancaster, a short trip from Palmdale and close to shops and movie theaters. Being brand new, the property is in excellent shape. The staff are super friendly and make you feel right at home. Though most of my activities are typically in Palmdale when I visit the area, I would definitely consider staying here in the future. A special shout out to Rosemary for her excellent hospitality!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r383330861-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>383330861</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Overnight stay to attend the Jethawks Baseball Game</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel and is a very close drive to the baseball stadium.  We were very pleased with everything about the hotel, staff, rooms, breakfast.  We will return to this lovely little gem and will advise our friends and family to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel and is a very close drive to the baseball stadium.  We were very pleased with everything about the hotel, staff, rooms, breakfast.  We will return to this lovely little gem and will advise our friends and family to stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r383330833-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>383330833</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>awesome stay for soccer games</t>
+  </si>
+  <si>
+    <t>will stay again. pictures on the website are accurate and real. breakfast was good. rooms were clean and bed comfortable. the hotel is close to fwy, mall, market, ampm, and 12 mins away from lancaster soccer centerMoreShow less</t>
+  </si>
+  <si>
+    <t>will stay again. pictures on the website are accurate and real. breakfast was good. rooms were clean and bed comfortable. the hotel is close to fwy, mall, market, ampm, and 12 mins away from lancaster soccer centerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r364244303-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>364244303</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Standard BW</t>
+  </si>
+  <si>
+    <t>No surprises.  Everything as expected.  No problems.  I found front desk (melissa) to be friendly and very competent (especially when we extended our stay.Down graded to **** because access is a bit weird,  Also weekends are cheaper than weekdays.  Weekday rates are much higher than the BW down the road in Palmdale.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>No surprises.  Everything as expected.  No problems.  I found front desk (melissa) to be friendly and very competent (especially when we extended our stay.Down graded to **** because access is a bit weird,  Also weekends are cheaper than weekdays.  Weekday rates are much higher than the BW down the road in Palmdale.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r355432547-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>355432547</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Standard best western property</t>
+  </si>
+  <si>
+    <t>Started really bad...2:15 pm.Day Front desk (Jennifer) has a bad attitude and is just mumbling over and over...No early check-in...check-in is 3.  I watched and listed as she told every single person that their room was still being cleaned.  I never saw her check the computer.New front desk (Rosemary) is quite professional and competentMy room ( 318) is really large- almost with a sitting room area Room is clean, average linens and bed comfortStandard free breakfast with pastries, cereals, coffees, juices, etcBest Western style and quality.   Glad the Evening front desk saved the experience.Moved from below average and never to return...To average and pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Started really bad...2:15 pm.Day Front desk (Jennifer) has a bad attitude and is just mumbling over and over...No early check-in...check-in is 3.  I watched and listed as she told every single person that their room was still being cleaned.  I never saw her check the computer.New front desk (Rosemary) is quite professional and competentMy room ( 318) is really large- almost with a sitting room area Room is clean, average linens and bed comfortStandard free breakfast with pastries, cereals, coffees, juices, etcBest Western style and quality.   Glad the Evening front desk saved the experience.Moved from below average and never to return...To average and pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r354099570-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>354099570</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay!</t>
+  </si>
+  <si>
+    <t>Nicely decorated room! Breakfast and parking included. Breakfast was a bit more than you usually get with complimentary breakfast (scrambled eggs, sausage, bacon, toast, cereal, coffee, juice, fruit and some pastries).MoreShow less</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded March 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2016</t>
+  </si>
+  <si>
+    <t>Nicely decorated room! Breakfast and parking included. Breakfast was a bit more than you usually get with complimentary breakfast (scrambled eggs, sausage, bacon, toast, cereal, coffee, juice, fruit and some pastries).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r321046049-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>321046049</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Really a nice Surprise!</t>
+  </si>
+  <si>
+    <t>Stayed for 4 nights with my wife on a vacation.From the friendliness of the Front Dest staff (day and night), the full breakfasts, the decent wi-fi speed/connectivity, comfy bed, the quiet a/c unit, the maid servicing, the cleanliness, and the general location -- this was a great place to stay!It's just north of "downtown" Lancaster, 7 min north of Palmdale, 15 min southwest of Edwards AFB, and just off Hwy 14.Only "awkward" part was trying to return to the freeway every morning for travel.  It necessitates crossing 3 lanes of traffic within 50 yds of a stoplight to get to the left-turn lane where you need to pull a u-turn to access the freeway on-ramps.  Not a "show-stopper", just a little weird....Overall, would very much recommend the place, and will stay there again if we're ever in the area again!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Stayed for 4 nights with my wife on a vacation.From the friendliness of the Front Dest staff (day and night), the full breakfasts, the decent wi-fi speed/connectivity, comfy bed, the quiet a/c unit, the maid servicing, the cleanliness, and the general location -- this was a great place to stay!It's just north of "downtown" Lancaster, 7 min north of Palmdale, 15 min southwest of Edwards AFB, and just off Hwy 14.Only "awkward" part was trying to return to the freeway every morning for travel.  It necessitates crossing 3 lanes of traffic within 50 yds of a stoplight to get to the left-turn lane where you need to pull a u-turn to access the freeway on-ramps.  Not a "show-stopper", just a little weird....Overall, would very much recommend the place, and will stay there again if we're ever in the area again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r320317523-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>320317523</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Brand New Hotel, Quiet, clean, and friendly staff</t>
+  </si>
+  <si>
+    <t>Friendly Staff, New Hotel (opened in July 2015?), Fast Internet! (40mbps!) Small but alright Gym, indoor pool, lots of parking spaces. Free coffee all day.One slight downside was not enough hot food during breakfast. I only had a toast.... and some fruit. Eggs and other proteins were all gone, without replenishmentMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Friendly Staff, New Hotel (opened in July 2015?), Fast Internet! (40mbps!) Small but alright Gym, indoor pool, lots of parking spaces. Free coffee all day.One slight downside was not enough hot food during breakfast. I only had a toast.... and some fruit. Eggs and other proteins were all gone, without replenishmentMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r319605989-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>319605989</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand new, Gorgeous, Amazing! </t>
+  </si>
+  <si>
+    <t>This hotel is beautiful and still smells brand new! The rooms are so comfortable and decorated very nicely. We stayed here with our 4 year old and 1 year old sons. The staff is so kind and helpful! Great pool and hot tub, we were the only ones in them last night. Nice breakfast selection, free Wi-Fi, very very clean and right across the street from In-N-Out and Starbucks. One of the best hotels I've ever stayed in and highly recommended!! Thank you so much Desert Poppy Inn!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is beautiful and still smells brand new! The rooms are so comfortable and decorated very nicely. We stayed here with our 4 year old and 1 year old sons. The staff is so kind and helpful! Great pool and hot tub, we were the only ones in them last night. Nice breakfast selection, free Wi-Fi, very very clean and right across the street from In-N-Out and Starbucks. One of the best hotels I've ever stayed in and highly recommended!! Thank you so much Desert Poppy Inn!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r301156956-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>301156956</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the best hotels in Lancaster </t>
+  </si>
+  <si>
+    <t>Stayed here overnight on a business trip and I highly enjoyed it. Staff was very friendly and rooms were amazing. No traffic noise, no suspicious people walking around. I would definitely stay here again. Highly recommended. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here overnight on a business trip and I highly enjoyed it. Staff was very friendly and rooms were amazing. No traffic noise, no suspicious people walking around. I would definitely stay here again. Highly recommended. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r293492694-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>293492694</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Exciting and New!</t>
+  </si>
+  <si>
+    <t>A wonderful new modern place to stay in Lancaster.  Great quality comfort at an affordable rate! This stop was quite a surprise for us, seeing this new beautiful motel right off of Ave. I and the 14 freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Melissa M, General Manager at Best Western Plus Desert Poppy Inn, responded to this reviewResponded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2015</t>
+  </si>
+  <si>
+    <t>A wonderful new modern place to stay in Lancaster.  Great quality comfort at an affordable rate! This stop was quite a surprise for us, seeing this new beautiful motel right off of Ave. I and the 14 freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r289715127-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>289715127</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Nice and new</t>
+  </si>
+  <si>
+    <t>Very nice and new. This was a good location north of end of Lancaster for the softball tournament we were attending. Across the freeway from Jethawks stadium and across the street from In-N-Out. I would recommend this hotel. Free breakfast was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice and new. This was a good location north of end of Lancaster for the softball tournament we were attending. Across the freeway from Jethawks stadium and across the street from In-N-Out. I would recommend this hotel. Free breakfast was good.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3148,7306 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>188</v>
+      </c>
+      <c r="X18" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" t="s">
+        <v>194</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>188</v>
+      </c>
+      <c r="X19" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>179</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>209</v>
+      </c>
+      <c r="X21" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" t="s">
+        <v>214</v>
+      </c>
+      <c r="K22" t="s">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s">
+        <v>216</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>209</v>
+      </c>
+      <c r="X22" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>223</v>
+      </c>
+      <c r="X23" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" t="s">
+        <v>229</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>179</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>223</v>
+      </c>
+      <c r="X24" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>179</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>223</v>
+      </c>
+      <c r="X25" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>241</v>
+      </c>
+      <c r="X26" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>245</v>
+      </c>
+      <c r="J27" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>249</v>
+      </c>
+      <c r="X27" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" t="s">
+        <v>255</v>
+      </c>
+      <c r="L28" t="s">
+        <v>256</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>81</v>
+      </c>
+      <c r="O28" t="s">
+        <v>91</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>257</v>
+      </c>
+      <c r="X28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>261</v>
+      </c>
+      <c r="J29" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" t="s">
+        <v>263</v>
+      </c>
+      <c r="L29" t="s">
+        <v>264</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>266</v>
+      </c>
+      <c r="X29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s">
+        <v>272</v>
+      </c>
+      <c r="L30" t="s">
+        <v>273</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>265</v>
+      </c>
+      <c r="O30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X30" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>275</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>276</v>
+      </c>
+      <c r="J31" t="s">
+        <v>277</v>
+      </c>
+      <c r="K31" t="s">
+        <v>278</v>
+      </c>
+      <c r="L31" t="s">
+        <v>279</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>265</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>280</v>
+      </c>
+      <c r="X31" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>284</v>
+      </c>
+      <c r="J32" t="s">
+        <v>285</v>
+      </c>
+      <c r="K32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s">
+        <v>287</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>265</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>288</v>
+      </c>
+      <c r="X32" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>292</v>
+      </c>
+      <c r="J33" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" t="s">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>296</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>297</v>
+      </c>
+      <c r="X33" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>301</v>
+      </c>
+      <c r="J34" t="s">
+        <v>302</v>
+      </c>
+      <c r="K34" t="s">
+        <v>303</v>
+      </c>
+      <c r="L34" t="s">
+        <v>304</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>296</v>
+      </c>
+      <c r="O34" t="s">
+        <v>101</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>297</v>
+      </c>
+      <c r="X34" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>307</v>
+      </c>
+      <c r="J35" t="s">
+        <v>308</v>
+      </c>
+      <c r="K35" t="s">
+        <v>309</v>
+      </c>
+      <c r="L35" t="s">
+        <v>310</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>296</v>
+      </c>
+      <c r="O35" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>311</v>
+      </c>
+      <c r="X35" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>315</v>
+      </c>
+      <c r="J36" t="s">
+        <v>316</v>
+      </c>
+      <c r="K36" t="s">
+        <v>317</v>
+      </c>
+      <c r="L36" t="s">
+        <v>318</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>296</v>
+      </c>
+      <c r="O36" t="s">
+        <v>101</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>319</v>
+      </c>
+      <c r="X36" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>323</v>
+      </c>
+      <c r="J37" t="s">
+        <v>324</v>
+      </c>
+      <c r="K37" t="s">
+        <v>325</v>
+      </c>
+      <c r="L37" t="s">
+        <v>326</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>327</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>328</v>
+      </c>
+      <c r="X37" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>331</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>332</v>
+      </c>
+      <c r="J38" t="s">
+        <v>333</v>
+      </c>
+      <c r="K38" t="s">
+        <v>334</v>
+      </c>
+      <c r="L38" t="s">
+        <v>335</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>327</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>336</v>
+      </c>
+      <c r="X38" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>340</v>
+      </c>
+      <c r="J39" t="s">
+        <v>333</v>
+      </c>
+      <c r="K39" t="s">
+        <v>341</v>
+      </c>
+      <c r="L39" t="s">
+        <v>342</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>327</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>336</v>
+      </c>
+      <c r="X39" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>344</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>345</v>
+      </c>
+      <c r="J40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" t="s">
+        <v>347</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>327</v>
+      </c>
+      <c r="O40" t="s">
+        <v>101</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>348</v>
+      </c>
+      <c r="X40" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>351</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>352</v>
+      </c>
+      <c r="J41" t="s">
+        <v>353</v>
+      </c>
+      <c r="K41" t="s">
+        <v>354</v>
+      </c>
+      <c r="L41" t="s">
+        <v>355</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>356</v>
+      </c>
+      <c r="X41" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>359</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>360</v>
+      </c>
+      <c r="J42" t="s">
+        <v>361</v>
+      </c>
+      <c r="K42" t="s">
+        <v>362</v>
+      </c>
+      <c r="L42" t="s">
+        <v>363</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>327</v>
+      </c>
+      <c r="O42" t="s">
+        <v>101</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>364</v>
+      </c>
+      <c r="X42" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>367</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>368</v>
+      </c>
+      <c r="J43" t="s">
+        <v>369</v>
+      </c>
+      <c r="K43" t="s">
+        <v>370</v>
+      </c>
+      <c r="L43" t="s">
+        <v>371</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>327</v>
+      </c>
+      <c r="O43" t="s">
+        <v>101</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>364</v>
+      </c>
+      <c r="X43" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>374</v>
+      </c>
+      <c r="J44" t="s">
+        <v>375</v>
+      </c>
+      <c r="K44" t="s">
+        <v>376</v>
+      </c>
+      <c r="L44" t="s">
+        <v>377</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>378</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>379</v>
+      </c>
+      <c r="X44" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>382</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>383</v>
+      </c>
+      <c r="J45" t="s">
+        <v>384</v>
+      </c>
+      <c r="K45" t="s">
+        <v>385</v>
+      </c>
+      <c r="L45" t="s">
+        <v>386</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>327</v>
+      </c>
+      <c r="O45" t="s">
+        <v>101</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>387</v>
+      </c>
+      <c r="X45" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>390</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>391</v>
+      </c>
+      <c r="J46" t="s">
+        <v>392</v>
+      </c>
+      <c r="K46" t="s">
+        <v>393</v>
+      </c>
+      <c r="L46" t="s">
+        <v>394</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>327</v>
+      </c>
+      <c r="O46" t="s">
+        <v>101</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>387</v>
+      </c>
+      <c r="X46" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>396</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>397</v>
+      </c>
+      <c r="J47" t="s">
+        <v>398</v>
+      </c>
+      <c r="K47" t="s">
+        <v>399</v>
+      </c>
+      <c r="L47" t="s">
+        <v>400</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>378</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>401</v>
+      </c>
+      <c r="X47" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>404</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>405</v>
+      </c>
+      <c r="J48" t="s">
+        <v>406</v>
+      </c>
+      <c r="K48" t="s">
+        <v>407</v>
+      </c>
+      <c r="L48" t="s">
+        <v>408</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>409</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>410</v>
+      </c>
+      <c r="X48" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>413</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>414</v>
+      </c>
+      <c r="J49" t="s">
+        <v>415</v>
+      </c>
+      <c r="K49" t="s">
+        <v>416</v>
+      </c>
+      <c r="L49" t="s">
+        <v>417</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>410</v>
+      </c>
+      <c r="X49" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>419</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>420</v>
+      </c>
+      <c r="J50" t="s">
+        <v>421</v>
+      </c>
+      <c r="K50" t="s">
+        <v>422</v>
+      </c>
+      <c r="L50" t="s">
+        <v>423</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>378</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>424</v>
+      </c>
+      <c r="X50" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>427</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>428</v>
+      </c>
+      <c r="J51" t="s">
+        <v>429</v>
+      </c>
+      <c r="K51" t="s">
+        <v>430</v>
+      </c>
+      <c r="L51" t="s">
+        <v>431</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>378</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>432</v>
+      </c>
+      <c r="X51" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>435</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>436</v>
+      </c>
+      <c r="J52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K52" t="s">
+        <v>438</v>
+      </c>
+      <c r="L52" t="s">
+        <v>439</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>378</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>432</v>
+      </c>
+      <c r="X52" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>441</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>442</v>
+      </c>
+      <c r="J53" t="s">
+        <v>443</v>
+      </c>
+      <c r="K53" t="s">
+        <v>444</v>
+      </c>
+      <c r="L53" t="s">
+        <v>445</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>378</v>
+      </c>
+      <c r="O53" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>446</v>
+      </c>
+      <c r="X53" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>449</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>450</v>
+      </c>
+      <c r="J54" t="s">
+        <v>451</v>
+      </c>
+      <c r="K54" t="s">
+        <v>452</v>
+      </c>
+      <c r="L54" t="s">
+        <v>453</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>454</v>
+      </c>
+      <c r="O54" t="s">
+        <v>91</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>455</v>
+      </c>
+      <c r="X54" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>458</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>459</v>
+      </c>
+      <c r="J55" t="s">
+        <v>460</v>
+      </c>
+      <c r="K55" t="s">
+        <v>461</v>
+      </c>
+      <c r="L55" t="s">
+        <v>462</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>378</v>
+      </c>
+      <c r="O55" t="s">
+        <v>91</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>463</v>
+      </c>
+      <c r="X55" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>466</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>467</v>
+      </c>
+      <c r="J56" t="s">
+        <v>468</v>
+      </c>
+      <c r="K56" t="s">
+        <v>469</v>
+      </c>
+      <c r="L56" t="s">
+        <v>470</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>454</v>
+      </c>
+      <c r="O56" t="s">
+        <v>101</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>463</v>
+      </c>
+      <c r="X56" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>472</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>473</v>
+      </c>
+      <c r="J57" t="s">
+        <v>474</v>
+      </c>
+      <c r="K57" t="s">
+        <v>475</v>
+      </c>
+      <c r="L57" t="s">
+        <v>476</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>454</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>477</v>
+      </c>
+      <c r="X57" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>480</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>481</v>
+      </c>
+      <c r="J58" t="s">
+        <v>482</v>
+      </c>
+      <c r="K58" t="s">
+        <v>483</v>
+      </c>
+      <c r="L58" t="s">
+        <v>484</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>454</v>
+      </c>
+      <c r="O58" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>485</v>
+      </c>
+      <c r="X58" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>488</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>489</v>
+      </c>
+      <c r="J59" t="s">
+        <v>490</v>
+      </c>
+      <c r="K59" t="s">
+        <v>491</v>
+      </c>
+      <c r="L59" t="s">
+        <v>492</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>454</v>
+      </c>
+      <c r="O59" t="s">
+        <v>62</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>493</v>
+      </c>
+      <c r="X59" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>496</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>497</v>
+      </c>
+      <c r="J60" t="s">
+        <v>498</v>
+      </c>
+      <c r="K60" t="s">
+        <v>499</v>
+      </c>
+      <c r="L60" t="s">
+        <v>500</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>501</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>502</v>
+      </c>
+      <c r="X60" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>505</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>506</v>
+      </c>
+      <c r="J61" t="s">
+        <v>507</v>
+      </c>
+      <c r="K61" t="s">
+        <v>508</v>
+      </c>
+      <c r="L61" t="s">
+        <v>509</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>454</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>502</v>
+      </c>
+      <c r="X61" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>511</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>512</v>
+      </c>
+      <c r="J62" t="s">
+        <v>513</v>
+      </c>
+      <c r="K62" t="s">
+        <v>514</v>
+      </c>
+      <c r="L62" t="s">
+        <v>515</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>501</v>
+      </c>
+      <c r="O62" t="s">
+        <v>62</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>516</v>
+      </c>
+      <c r="X62" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>519</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>520</v>
+      </c>
+      <c r="J63" t="s">
+        <v>521</v>
+      </c>
+      <c r="K63" t="s">
+        <v>522</v>
+      </c>
+      <c r="L63" t="s">
+        <v>523</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>501</v>
+      </c>
+      <c r="O63" t="s">
+        <v>101</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>516</v>
+      </c>
+      <c r="X63" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>525</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>526</v>
+      </c>
+      <c r="J64" t="s">
+        <v>527</v>
+      </c>
+      <c r="K64" t="s">
+        <v>528</v>
+      </c>
+      <c r="L64" t="s">
+        <v>529</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>501</v>
+      </c>
+      <c r="O64" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>516</v>
+      </c>
+      <c r="X64" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>531</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>532</v>
+      </c>
+      <c r="J65" t="s">
+        <v>533</v>
+      </c>
+      <c r="K65" t="s">
+        <v>534</v>
+      </c>
+      <c r="L65" t="s">
+        <v>535</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>501</v>
+      </c>
+      <c r="O65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>516</v>
+      </c>
+      <c r="X65" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>537</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>538</v>
+      </c>
+      <c r="J66" t="s">
+        <v>533</v>
+      </c>
+      <c r="K66" t="s">
+        <v>539</v>
+      </c>
+      <c r="L66" t="s">
+        <v>540</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>501</v>
+      </c>
+      <c r="O66" t="s">
+        <v>62</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>516</v>
+      </c>
+      <c r="X66" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>542</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>543</v>
+      </c>
+      <c r="J67" t="s">
+        <v>533</v>
+      </c>
+      <c r="K67" t="s">
+        <v>544</v>
+      </c>
+      <c r="L67" t="s">
+        <v>545</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>501</v>
+      </c>
+      <c r="O67" t="s">
+        <v>101</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>516</v>
+      </c>
+      <c r="X67" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>547</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>548</v>
+      </c>
+      <c r="J68" t="s">
+        <v>549</v>
+      </c>
+      <c r="K68" t="s">
+        <v>550</v>
+      </c>
+      <c r="L68" t="s">
+        <v>551</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>501</v>
+      </c>
+      <c r="O68" t="s">
+        <v>62</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>552</v>
+      </c>
+      <c r="X68" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>555</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>556</v>
+      </c>
+      <c r="J69" t="s">
+        <v>549</v>
+      </c>
+      <c r="K69" t="s">
+        <v>557</v>
+      </c>
+      <c r="L69" t="s">
+        <v>558</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>501</v>
+      </c>
+      <c r="O69" t="s">
+        <v>62</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>559</v>
+      </c>
+      <c r="X69" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>562</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>563</v>
+      </c>
+      <c r="J70" t="s">
+        <v>564</v>
+      </c>
+      <c r="K70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L70" t="s">
+        <v>566</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>567</v>
+      </c>
+      <c r="O70" t="s">
+        <v>101</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>568</v>
+      </c>
+      <c r="X70" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>571</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>572</v>
+      </c>
+      <c r="J71" t="s">
+        <v>573</v>
+      </c>
+      <c r="K71" t="s">
+        <v>574</v>
+      </c>
+      <c r="L71" t="s">
+        <v>575</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>567</v>
+      </c>
+      <c r="O71" t="s">
+        <v>62</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>568</v>
+      </c>
+      <c r="X71" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>577</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>578</v>
+      </c>
+      <c r="J72" t="s">
+        <v>579</v>
+      </c>
+      <c r="K72" t="s">
+        <v>580</v>
+      </c>
+      <c r="L72" t="s">
+        <v>581</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>567</v>
+      </c>
+      <c r="O72" t="s">
+        <v>101</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>568</v>
+      </c>
+      <c r="X72" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>583</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>584</v>
+      </c>
+      <c r="J73" t="s">
+        <v>579</v>
+      </c>
+      <c r="K73" t="s">
+        <v>585</v>
+      </c>
+      <c r="L73" t="s">
+        <v>586</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>567</v>
+      </c>
+      <c r="O73" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>587</v>
+      </c>
+      <c r="X73" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>590</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>591</v>
+      </c>
+      <c r="J74" t="s">
+        <v>592</v>
+      </c>
+      <c r="K74" t="s">
+        <v>593</v>
+      </c>
+      <c r="L74" t="s">
+        <v>594</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>567</v>
+      </c>
+      <c r="O74" t="s">
+        <v>72</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>595</v>
+      </c>
+      <c r="X74" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>598</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>599</v>
+      </c>
+      <c r="J75" t="s">
+        <v>600</v>
+      </c>
+      <c r="K75" t="s">
+        <v>601</v>
+      </c>
+      <c r="L75" t="s">
+        <v>602</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>567</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>603</v>
+      </c>
+      <c r="X75" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>606</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>607</v>
+      </c>
+      <c r="J76" t="s">
+        <v>608</v>
+      </c>
+      <c r="K76" t="s">
+        <v>609</v>
+      </c>
+      <c r="L76" t="s">
+        <v>610</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>409</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>611</v>
+      </c>
+      <c r="X76" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>614</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>615</v>
+      </c>
+      <c r="J77" t="s">
+        <v>616</v>
+      </c>
+      <c r="K77" t="s">
+        <v>617</v>
+      </c>
+      <c r="L77" t="s">
+        <v>618</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>619</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>620</v>
+      </c>
+      <c r="X77" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>623</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>624</v>
+      </c>
+      <c r="J78" t="s">
+        <v>625</v>
+      </c>
+      <c r="K78" t="s">
+        <v>626</v>
+      </c>
+      <c r="L78" t="s">
+        <v>627</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>619</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>628</v>
+      </c>
+      <c r="X78" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>631</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>632</v>
+      </c>
+      <c r="J79" t="s">
+        <v>633</v>
+      </c>
+      <c r="K79" t="s">
+        <v>634</v>
+      </c>
+      <c r="L79" t="s">
+        <v>635</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>619</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>636</v>
+      </c>
+      <c r="X79" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>639</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>640</v>
+      </c>
+      <c r="J80" t="s">
+        <v>641</v>
+      </c>
+      <c r="K80" t="s">
+        <v>642</v>
+      </c>
+      <c r="L80" t="s">
+        <v>643</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>644</v>
+      </c>
+      <c r="O80" t="s">
+        <v>101</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>645</v>
+      </c>
+      <c r="X80" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>648</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>649</v>
+      </c>
+      <c r="J81" t="s">
+        <v>650</v>
+      </c>
+      <c r="K81" t="s">
+        <v>651</v>
+      </c>
+      <c r="L81" t="s">
+        <v>652</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>644</v>
+      </c>
+      <c r="O81" t="s">
+        <v>72</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>653</v>
+      </c>
+      <c r="X81" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>656</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>657</v>
+      </c>
+      <c r="J82" t="s">
+        <v>658</v>
+      </c>
+      <c r="K82" t="s">
+        <v>659</v>
+      </c>
+      <c r="L82" t="s">
+        <v>660</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>661</v>
+      </c>
+      <c r="O82" t="s">
+        <v>101</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>662</v>
+      </c>
+      <c r="X82" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>665</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>666</v>
+      </c>
+      <c r="J83" t="s">
+        <v>667</v>
+      </c>
+      <c r="K83" t="s">
+        <v>668</v>
+      </c>
+      <c r="L83" t="s">
+        <v>669</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>670</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>671</v>
+      </c>
+      <c r="X83" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>674</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>675</v>
+      </c>
+      <c r="J84" t="s">
+        <v>676</v>
+      </c>
+      <c r="K84" t="s">
+        <v>677</v>
+      </c>
+      <c r="L84" t="s">
+        <v>678</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>679</v>
+      </c>
+      <c r="O84" t="s">
+        <v>101</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>680</v>
+      </c>
+      <c r="X84" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>682</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>683</v>
+      </c>
+      <c r="J85" t="s">
+        <v>684</v>
+      </c>
+      <c r="K85" t="s">
+        <v>685</v>
+      </c>
+      <c r="L85" t="s">
+        <v>686</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>670</v>
+      </c>
+      <c r="O85" t="s">
+        <v>101</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>687</v>
+      </c>
+      <c r="X85" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>690</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>691</v>
+      </c>
+      <c r="J86" t="s">
+        <v>692</v>
+      </c>
+      <c r="K86" t="s">
+        <v>693</v>
+      </c>
+      <c r="L86" t="s">
+        <v>694</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>695</v>
+      </c>
+      <c r="O86" t="s">
+        <v>101</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>696</v>
+      </c>
+      <c r="X86" t="s">
+        <v>697</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>699</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>700</v>
+      </c>
+      <c r="J87" t="s">
+        <v>701</v>
+      </c>
+      <c r="K87" t="s">
+        <v>702</v>
+      </c>
+      <c r="L87" t="s">
+        <v>703</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>695</v>
+      </c>
+      <c r="O87" t="s">
+        <v>101</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>696</v>
+      </c>
+      <c r="X87" t="s">
+        <v>697</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>705</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>706</v>
+      </c>
+      <c r="J88" t="s">
+        <v>707</v>
+      </c>
+      <c r="K88" t="s">
+        <v>708</v>
+      </c>
+      <c r="L88" t="s">
+        <v>709</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>695</v>
+      </c>
+      <c r="O88" t="s">
+        <v>72</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>696</v>
+      </c>
+      <c r="X88" t="s">
+        <v>697</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>711</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>712</v>
+      </c>
+      <c r="J89" t="s">
+        <v>713</v>
+      </c>
+      <c r="K89" t="s">
+        <v>714</v>
+      </c>
+      <c r="L89" t="s">
+        <v>715</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>695</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>716</v>
+      </c>
+      <c r="X89" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>719</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>720</v>
+      </c>
+      <c r="J90" t="s">
+        <v>721</v>
+      </c>
+      <c r="K90" t="s">
+        <v>722</v>
+      </c>
+      <c r="L90" t="s">
+        <v>723</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>695</v>
+      </c>
+      <c r="O90" t="s">
+        <v>91</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>716</v>
+      </c>
+      <c r="X90" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>725</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>726</v>
+      </c>
+      <c r="J91" t="s">
+        <v>727</v>
+      </c>
+      <c r="K91" t="s">
+        <v>728</v>
+      </c>
+      <c r="L91" t="s">
+        <v>729</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>695</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>716</v>
+      </c>
+      <c r="X91" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>731</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>732</v>
+      </c>
+      <c r="J92" t="s">
+        <v>733</v>
+      </c>
+      <c r="K92" t="s">
+        <v>734</v>
+      </c>
+      <c r="L92" t="s">
+        <v>735</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>679</v>
+      </c>
+      <c r="O92" t="s">
+        <v>101</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>736</v>
+      </c>
+      <c r="X92" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>739</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>740</v>
+      </c>
+      <c r="J93" t="s">
+        <v>741</v>
+      </c>
+      <c r="K93" t="s">
+        <v>742</v>
+      </c>
+      <c r="L93" t="s">
+        <v>743</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>744</v>
+      </c>
+      <c r="X93" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>747</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>748</v>
+      </c>
+      <c r="J94" t="s">
+        <v>749</v>
+      </c>
+      <c r="K94" t="s">
+        <v>255</v>
+      </c>
+      <c r="L94" t="s">
+        <v>750</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>679</v>
+      </c>
+      <c r="O94" t="s">
+        <v>101</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>751</v>
+      </c>
+      <c r="X94" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>754</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>755</v>
+      </c>
+      <c r="J95" t="s">
+        <v>756</v>
+      </c>
+      <c r="K95" t="s">
+        <v>757</v>
+      </c>
+      <c r="L95" t="s">
+        <v>758</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>759</v>
+      </c>
+      <c r="O95" t="s">
+        <v>101</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>760</v>
+      </c>
+      <c r="X95" t="s">
+        <v>761</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>763</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>764</v>
+      </c>
+      <c r="J96" t="s">
+        <v>765</v>
+      </c>
+      <c r="K96" t="s">
+        <v>766</v>
+      </c>
+      <c r="L96" t="s">
+        <v>767</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>759</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>768</v>
+      </c>
+      <c r="X96" t="s">
+        <v>769</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>771</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>772</v>
+      </c>
+      <c r="J97" t="s">
+        <v>773</v>
+      </c>
+      <c r="K97" t="s">
+        <v>774</v>
+      </c>
+      <c r="L97" t="s">
+        <v>775</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>759</v>
+      </c>
+      <c r="O97" t="s">
+        <v>101</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>776</v>
+      </c>
+      <c r="X97" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>778</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>779</v>
+      </c>
+      <c r="J98" t="s">
+        <v>780</v>
+      </c>
+      <c r="K98" t="s">
+        <v>781</v>
+      </c>
+      <c r="L98" t="s">
+        <v>782</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>783</v>
+      </c>
+      <c r="O98" t="s">
+        <v>72</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>587</v>
+      </c>
+      <c r="X98" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>785</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>786</v>
+      </c>
+      <c r="J99" t="s">
+        <v>787</v>
+      </c>
+      <c r="K99" t="s">
+        <v>788</v>
+      </c>
+      <c r="L99" t="s">
+        <v>789</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>790</v>
+      </c>
+      <c r="O99" t="s">
+        <v>62</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>587</v>
+      </c>
+      <c r="X99" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>792</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>793</v>
+      </c>
+      <c r="J100" t="s">
+        <v>794</v>
+      </c>
+      <c r="K100" t="s">
+        <v>795</v>
+      </c>
+      <c r="L100" t="s">
+        <v>796</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>790</v>
+      </c>
+      <c r="O100" t="s">
+        <v>101</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>587</v>
+      </c>
+      <c r="X100" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>798</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>799</v>
+      </c>
+      <c r="J101" t="s">
+        <v>800</v>
+      </c>
+      <c r="K101" t="s">
+        <v>801</v>
+      </c>
+      <c r="L101" t="s">
+        <v>802</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>803</v>
+      </c>
+      <c r="O101" t="s">
+        <v>62</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>587</v>
+      </c>
+      <c r="X101" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>805</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>806</v>
+      </c>
+      <c r="J102" t="s">
+        <v>807</v>
+      </c>
+      <c r="K102" t="s">
+        <v>808</v>
+      </c>
+      <c r="L102" t="s">
+        <v>809</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>810</v>
+      </c>
+      <c r="O102" t="s">
+        <v>72</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>811</v>
+      </c>
+      <c r="X102" t="s">
+        <v>812</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>814</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>815</v>
+      </c>
+      <c r="J103" t="s">
+        <v>816</v>
+      </c>
+      <c r="K103" t="s">
+        <v>817</v>
+      </c>
+      <c r="L103" t="s">
+        <v>818</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>810</v>
+      </c>
+      <c r="O103" t="s">
+        <v>62</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>819</v>
+      </c>
+      <c r="X103" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>822</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>823</v>
+      </c>
+      <c r="J104" t="s">
+        <v>824</v>
+      </c>
+      <c r="K104" t="s">
+        <v>825</v>
+      </c>
+      <c r="L104" t="s">
+        <v>826</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>827</v>
+      </c>
+      <c r="O104" t="s">
+        <v>62</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>828</v>
+      </c>
+      <c r="X104" t="s">
+        <v>829</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>831</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>832</v>
+      </c>
+      <c r="J105" t="s">
+        <v>833</v>
+      </c>
+      <c r="K105" t="s">
+        <v>834</v>
+      </c>
+      <c r="L105" t="s">
+        <v>835</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>836</v>
+      </c>
+      <c r="O105" t="s">
+        <v>72</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>837</v>
+      </c>
+      <c r="X105" t="s">
+        <v>838</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>840</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>841</v>
+      </c>
+      <c r="J106" t="s">
+        <v>842</v>
+      </c>
+      <c r="K106" t="s">
+        <v>843</v>
+      </c>
+      <c r="L106" t="s">
+        <v>844</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>827</v>
+      </c>
+      <c r="O106" t="s">
+        <v>101</v>
+      </c>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>845</v>
+      </c>
+      <c r="X106" t="s">
+        <v>846</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>848</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>849</v>
+      </c>
+      <c r="J107" t="s">
+        <v>850</v>
+      </c>
+      <c r="K107" t="s">
+        <v>851</v>
+      </c>
+      <c r="L107" t="s">
+        <v>852</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>853</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>854</v>
+      </c>
+      <c r="X107" t="s">
+        <v>855</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>857</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>858</v>
+      </c>
+      <c r="J108" t="s">
+        <v>859</v>
+      </c>
+      <c r="K108" t="s">
+        <v>860</v>
+      </c>
+      <c r="L108" t="s">
+        <v>861</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>862</v>
+      </c>
+      <c r="O108" t="s">
+        <v>62</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>863</v>
+      </c>
+      <c r="X108" t="s">
+        <v>864</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>56605</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>866</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>867</v>
+      </c>
+      <c r="J109" t="s">
+        <v>868</v>
+      </c>
+      <c r="K109" t="s">
+        <v>869</v>
+      </c>
+      <c r="L109" t="s">
+        <v>870</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>862</v>
+      </c>
+      <c r="O109" t="s">
+        <v>62</v>
+      </c>
+      <c r="P109" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>863</v>
+      </c>
+      <c r="X109" t="s">
+        <v>864</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>871</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_56.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_56.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="980">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>wcbonner3</t>
+  </si>
+  <si>
     <t>06/28/2018</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
   </si>
   <si>
     <t>We Had Such A Pleasant Night Of Sleep! We we're In Town As Venders At The 2018 Poppy Fest We Have Been Truly Blessed Staying At The Best Western Plus I Will Definally  Stay There Again &amp; Would Always Recommend People To Give it A Try. REAL TALK !More</t>
+  </si>
+  <si>
+    <t>Donna L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r575857999-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
@@ -220,6 +226,9 @@
 The free breakfast was ergonomically well-laid out as well as tasty. Choices included oatmeal with many toppings, 3 kinds of cold cereal, 3 kinds of fresh fruit, many yogurt flavors, cranberry juice as well as OJ and apple juice, coffee &amp; tea, 2 wafflemakers, scrambled and boiled eggs and bacon. Pastries and bread items were sized to reduce guilt.  Some may not want an entire bagel, for example, so the pre-slit mini-bagels and the effective toaster (many disappoint nowadays) were appreciated.  The chafing dishes...Access:  When we arrived, we did not see any sign that said “Desert Poppy Inn” anywhere, just “Best Western”.   Check-in was friendly, and we appreciated the WIFI password written in fat purple marker on the wee envelope the card keys came in.  Card keys work by holding them up to the reader on the door. No sticking a card in a slot in multiple orientations to get the door to open.  No views. Next to freeway.Snacks &amp; Breakfast: The room had a microwave and a minifridge (instead of a glorified cooler as some 4 star properties are now providing with a straight face)). During check in I noted a room off the lobby that had snack products on display.  I fetched a microwave popcorn pouch (only a buck) and used the microwave in our room to pop it.  Not a gourmet experience, but it hit the spot and held us over until our dinner reservation.  The free breakfast was ergonomically well-laid out as well as tasty. Choices included oatmeal with many toppings, 3 kinds of cold cereal, 3 kinds of fresh fruit, many yogurt flavors, cranberry juice as well as OJ and apple juice, coffee &amp; tea, 2 wafflemakers, scrambled and boiled eggs and bacon. Pastries and bread items were sized to reduce guilt.  Some may not want an entire bagel, for example, so the pre-slit mini-bagels and the effective toaster (many disappoint nowadays) were appreciated.  The chafing dishes in which the scrambled eggs and bacon were served had a feature that reduced mess and made them easier to use.  They had hinged lids that stayed up when lifted.  No holding a dripping lid aloft with one hand, spooning what you want with a second hand and holding a plate close enough to catch errant bits with one’s third hand.Bathroom:  Plenty of counter space and light!  No balancing toiletries on edges.  No wondering if the inability to see how much makeup is being applied has resulted in a finished face more appropriate to the clowning profession.  The tub drain ran w/o backing up.Bed, TV, WIFI, carpets:   The king bed was comfy. TV and WIFI were easy to use and reliable. The carpets in the halls had a fetching design with 3 infinite stems of buds that ran parallel to the halls on a field of geometric shapes. Sounds jarring but it totally worked.  Room carpet new. Everything seemed clean.Elevators:  There is only one, and it was slow enough to cause us to switch to the stairs for our third floor room.  It made more groaning and squeaking noises than a freight elevator (and I’ve operated my share).  The staircases are at the ends of the building, but I think they were faster overall.  At least it felt that way.Price: With the included breakfast for 2, the room price was a good value.  We saw a couple of reviews that indicated the price went up between booking and check in, so we printed out our booking and brought it just in case.  Lancaster does not have a rep as tourist destination but we found many murals, a fetching downtown, people who say hello to tourists, good espresso (e.g. Liquid Bean not only served smooth coffee fast, but did so in a charming manner) and an art museum.More</t>
   </si>
   <si>
+    <t>Raven25Blue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r575150099-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -250,6 +259,9 @@
     <t>This is a fairly new hotel and it shows. Rooms are spacious, modern, and spotlessly clean. Although it is located close to highway 14, it was very quiet. The staff was really nice and I received an upgrade to a beautiful suite. Breakfast was very good and they also have a "social hour" with snacks and non-alcoholic beverages in the late afternoon.My only regret was that there were no poppies at the Reserve but of course that's not the hotel's fault. I'll just have to come back someday!More</t>
   </si>
   <si>
+    <t>WorldDuo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r568117834-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -277,6 +289,9 @@
     <t>Great place to stay, especially after a long drive.The room was clean and quiet, just what you would expect from a Best Western Plus.We only stayed overnight, so we didn't take advantage of any amenities aside from the breakfast.More</t>
   </si>
   <si>
+    <t>Jorgigirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r559788638-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -307,6 +322,9 @@
     <t>I have stayed at this hotel four times. The first by accident. Whether coming into town for business or to visit friends, it is exceptional.  The staff is great, very personable and friendly. Rooms are spacious and extremely clean. Comfy beds and a great breakfast. Week day happy hour is a nice add on. More</t>
   </si>
   <si>
+    <t>X1180XGtomg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r558688956-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -337,6 +355,9 @@
     <t>This is a wonderful and new property. Very clean, pool and gym were nice. Excellent choice if you need to say in Lancastor. Breakfast was great and the staff were very nice.  The check in was not early but other than that it was great. More</t>
   </si>
   <si>
+    <t>julguidi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r556879447-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -361,6 +382,9 @@
     <t>Shawn at the front desk was amazing! She was kind and helpful and very professional! She greeted us and treated us with respect! She would be recognized for that we have encountered 3 other front desk clerks. None as bubbly and friendly as Shawn.Our rooms where super clean!! And it was quiet and relaxing. More</t>
   </si>
   <si>
+    <t>Formiga</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r556760865-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -385,6 +409,9 @@
     <t>We were doing a course at willow springs raceway for 3 days and we stayed here for 4 nights. It was a very comfortable room, lots of space, quiet, had a great breakfast and they even offered free snacks and drinks in the afternoon. The staff were friendly and helpful. I worked out a couple of times in the gym and we did laundry as well. Lots of restaurants nearby, very close to everything. I only wish they were pet friendly, but I would definitely recommend staying here.More</t>
   </si>
   <si>
+    <t>379annettef</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r551916056-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -409,6 +436,9 @@
     <t>I have spent overnights at other Best Westerns and this event met the standards I expected,  Staff was helpful and friendly.  I just wish breakfast would be available until 10:00 on weekdays for those of us who would prefer to sleep in a bit and still enjoy the free breakfast.  Would definitely stay at Best Western Hotels in the future.More</t>
   </si>
   <si>
+    <t>donnalJ9569YO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r550343236-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -436,6 +466,9 @@
     <t>This is a newer hotel. It is easy to find, right off of the freeway. Check in was a breeze, with friendly, helpful counter staff. The place is clean and fresh. The staff is very helpful. The rooms are very nice and spacious. The hot breakfast is well stocked.More</t>
   </si>
   <si>
+    <t>Tiffany B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r549870565-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -454,6 +487,9 @@
     <t>It's location is very convenient. It's clean, roomy, and many amenities. Shawn and Jack, the night/overnight staff, have been very helpful, polite and accommodating, especially since I'm here for work. More</t>
   </si>
   <si>
+    <t>Minhsiu C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r549505445-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -478,6 +514,9 @@
     <t>New building, nice and clean. Close by parents home. Easy access hwy and local places. Microwave and refugiator in the room. We r on the 3rd floor with good view.breakfster is great and hot water serve all day.More</t>
   </si>
   <si>
+    <t>S2076HTandrewc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r548070086-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -502,6 +541,9 @@
     <t>Super friendly staff, clean rooms, effortless check in and out, always parking available. I’d recommend staying here for sure. Although the fitness center was a bit small, at least there was one available. More</t>
   </si>
   <si>
+    <t>Michael N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r547984113-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -520,6 +562,9 @@
     <t>Even though we experienced a hiccup in the registration process where I thought central reservations had booked me a fully accessible room, it turns out the room was accessible to get into, but not the shower and toilet. Shawn, the evening clerk made sure were satisfied and let me look at the room prior to final check in. The property is clean, comfortable, and workable for us needing accessibility. Breakfast was good and presentable. I will stay here again, but I'll insist on a fully accessible room from the front dest, not reservation central.More</t>
   </si>
   <si>
+    <t>Lisa H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r546751380-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -544,6 +589,9 @@
     <t>We enjoyed this new hotel at the north end of the Antelope Valley - it's a convenient location for us with an excellent price, AND everything is brand new!  Bonus!!  Service was good, breakfast was nice, everything was very clean, the bed was comfortable, and the wifi worked - nothing to complain about.  I can say that I LOVED the shower and the shower amenities, which is very unusual at this price point!!More</t>
   </si>
   <si>
+    <t>S2027JJjuanc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r543740062-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -571,6 +619,9 @@
     <t>This Best Western location is without a doubt the best Best Western that we have stayed at, it has been immaculate every time we have stayed there. We have stayed at many other locations and this is without a doubt the very best.  Staff has been outstanding always willing to help.. Highly recommend to everyone in the area.More</t>
   </si>
   <si>
+    <t>Joseph M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r542352466-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -595,6 +646,9 @@
     <t>Really enjoy staying at this hotel on a weekly basis. Shawn and Melissa are always so helpful and have great customer service. When I check in, I like to see one of those faces when I walk through the door. A++++++More</t>
   </si>
   <si>
+    <t>monique n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r542349379-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -610,6 +664,9 @@
     <t>If you are in the AV and looking for a nice place to stay with friendly service this is your spot. Shawn offers great customer service and always make us feel welcome after a long day of work. No matter how late it is she always greats us with a smile. Keep Rocking Shawn. We appreciate your prompt assistance and welcoming spirit. Thanks for making our home away from home comfortable.More</t>
   </si>
   <si>
+    <t>markmF8378CI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r540917606-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -634,6 +691,9 @@
     <t>The stay here was comfortable and the hotel was clean with a nice hot breakfast in the morning with a very well taken care of selection. If you have to stay in Lancaster, this would be the place to stay. More</t>
   </si>
   <si>
+    <t>lmbeyer13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r540764559-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -658,6 +718,9 @@
     <t>We recently stayed at this hotel and would recommend this one to anyone traveling.  The staff was efficient, friendly and very helpful.   Shawn went out of her way to take care of us and we really appreciate it.   The room was quiet and clean, the cleaning staff was amazing, and the workers for the breakfast were on top of things.  We were very impressed.More</t>
   </si>
   <si>
+    <t>khinds16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r540506869-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -676,6 +739,9 @@
     <t>Stayed at this hotel for one night. It was very nice. There was plenty of parking, the lobby was nice and clean, the rooms were spacious, clean and smelled like fresh laundry. Shawn at the front desk was wonderful.  She was friendly, informative about kid friendly dining in the area, and was so sweet to our 3 month old baby. She even remembered his name the next morning we were checking out. Don't know if ill be in this area again, but if I was I'd definitely stay here again. Oh, free continental breakfast was really good too.More</t>
   </si>
   <si>
+    <t>Dianna M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r538928312-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -700,6 +766,9 @@
     <t>The hotel rooms are spacious and beautifully decorated.    Each morning started with a full breakfast bar and the evening ended with a nice drink at the bar.   The front desk associate, Shawn, was extremely helpful and very upbeat.More</t>
   </si>
   <si>
+    <t>r0ger125</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r538924384-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -715,6 +784,9 @@
     <t>This hotel has met and exceeded my expectations while on my business trips to Lancaster.  Rooms are spacious and clean. Staff is friendly and accommodating.  I have had the pleasure of interacting with Shawn, front desk, several times during my various stays.  She is polite and friendly. Some of my fellow business travel companions have made the same observation.  Keep up the good work, Shawn.  She is a great employee that goes above and beyond to assure my stay at the Poppy Inn is pleasant and trouble free.More</t>
   </si>
   <si>
+    <t>968reubenl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r538985253-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -730,6 +802,9 @@
     <t>great staff, professional establishment,clean and accommodating. friendly staff. easy quick check in and check out. great location to food options and near the freeway. real quiet area little to no disturbance during the night making for a good night sleep.More</t>
   </si>
   <si>
+    <t>charycharu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r537679770-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -754,6 +829,9 @@
     <t>The rooms at this hotel are very nice. Shawn working at the front was very professional and helpful. I definitely recommend this hotel if you are going to be in the area. Breakfast is included. They will value you as a customer.More</t>
   </si>
   <si>
+    <t>DrVentura4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r536748154-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -778,6 +856,9 @@
     <t>Always a pleasure staying at my away from home. Lancaster Poppy Inn Best Western is always provides friendly and accomodating service for many.  So many professionals share this home away for business and it's nice to see the same faces every week for breakfast or happy hour.  All the staff are great! Beds are comfortable and the amenities and location are perfect. More</t>
   </si>
   <si>
+    <t>267sandyz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r533637614-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -802,6 +883,9 @@
     <t>Huge rooms. Friendly staff.  The breakfast was delicious and up kept with the refills. Loved that there was a laundry room where we were able to wash our daughter's uniform for her games that weekend. Wonderful experience.More</t>
   </si>
   <si>
+    <t>381pattyq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r527475080-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -829,6 +913,9 @@
     <t>Very good stay in Lancaster, CA for business. Breakfast and happy hour snacks were available, as well as restaurants within walking distance. Hotel rooms were comfortable with nicely made beds and cleanliness of rooms.More</t>
   </si>
   <si>
+    <t>Rick E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r527098423-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -847,6 +934,9 @@
     <t>We've stayed here every year for the last 3 years while visting with family in the area only place we prefer to stay, all  of the staff are very helpful and  friendly the only reason to stay anywhere else would be we didn't book in time.     More</t>
   </si>
   <si>
+    <t>patricksA7958MO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r525847478-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -871,6 +961,9 @@
     <t>Mel and Jack are great the rooms are huge I love looking at the view out of the 3rd floor there's also a lot of parking the breakfast is really great I love the bacon and eggs and the hot sauce I also like the gym that you guys have its 24 hoursMore</t>
   </si>
   <si>
+    <t>alfredov353</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r525318538-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -895,6 +988,9 @@
     <t>The Dessert Puppy was a great hotel located in Lancaster, Califonia. It is a new hotel with free breakfast and two drinks after 5:P.M. I would love to stay again at this location.The breakfast  was more than continental breakfast and it was better than   Danny's or any other restaurant.More</t>
   </si>
   <si>
+    <t>Scott W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r520124444-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -922,6 +1018,9 @@
     <t>Good new hotel. Great rate! Quality Best Western experience.Close to In&amp;Out, Arco Gas and freeway.Close to Fairgrounds and Baseball Stadium.Did not use pool,breakfast or any other amenity. Recommend this property. Thanks.More</t>
   </si>
   <si>
+    <t>eva2492017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r518617001-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -940,6 +1039,9 @@
     <t>Besides the minor detail that you're in Lancaster... this hotel is awesome! The room was super spacious, which was great for our 1.5 yr old to play around in and for her pack n' play set up... I'm not sure how full the hotel was during our stay, but our room was gloriously quiet (which I find rare at hotels) besides some traffic noise... also loved the breakfast spread that's included.More</t>
   </si>
   <si>
+    <t>Judy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r514111530-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -964,6 +1066,9 @@
     <t>This is a new hotel in Lancaster, CA.  The hotel was a delight.  The facilities were wonderful, from the pool to the exercise room.  Breakfast was incredible and staff members were polite, professional and very helpful.  We will stay again next time we are in the area.More</t>
   </si>
   <si>
+    <t>douglasf498</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r511647191-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -988,6 +1093,9 @@
     <t>We love it here at the Best Western Plus Desert Poppy Inn, Lancaster. The staff is kind and considerate. It is very close to everything we need. It is quite and the pool is not over crowded. Its just a really nice place to be. And our family can come visit us here.More</t>
   </si>
   <si>
+    <t>287PWW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r510091469-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1015,6 +1123,9 @@
     <t>King room are nicely sized with space to walk around in.  Bed are comfortable with lots of pillows.  Bathroom Showers have great water pressure.  Front Desk Staff are excellent seamless check-in process and always glad to see you.  The breakfast is also very good with a lot of option and really good coffee.  I will continue to stay herewhen I can.  Thank You Best Western for having us.More</t>
   </si>
   <si>
+    <t>karenkM5065HQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r506364524-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1039,6 +1150,9 @@
     <t>We have stayed here before while traveling through the AV. Very nice room and the desk staff was friendly and efficient. The buffet breakfast was quite good and the lady in charge was very helpful and kept the area spotless. Actually one of the best hotel buffet breakfasts we have had in a long while.More</t>
   </si>
   <si>
+    <t>Cwas6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r506118863-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1054,6 +1168,9 @@
     <t>This is a newer hotel. Hotel was very clean. They offer a guest laundry. All soap and laundry products sold at front desk. Easy access to hotel wifi, conveniently located around many things.  Many food outlet nearby. They offer a nice full breakfast daily.More</t>
   </si>
   <si>
+    <t>emtad2007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r505626168-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1075,6 +1192,9 @@
     <t>Stayed in this hotel for 2 nights, first night booked through a 3rd party website, second night booked directly through the hotel. Front desk staff are friendly and accomodating, did not have any issues with checking in/out. Since this hotel is new, the room we stayed in was very clean, airconditioner worked great (High Desert temperature can be extreme around this time of the year), bathroom was very clean and beds are both comfy. Breakfast was included both days which was a nice addition, decent selection for continental breakfast. The only downside is that the parking lot entrance can be a bit tricky. I live locally but still had to go around and take another street (Valley Central Way to Ave I) as you cannot make a left on Ave I and from 20th St West. Overall a great hotel, highly recommended! More</t>
   </si>
   <si>
+    <t>SunDancer1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r503685235-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1099,6 +1219,9 @@
     <t>My daughter, grandson, and I headed to Lancaster for the super bloom. This was a great home base for all we wanted to see.  The hotel was very clean and in great condition.  The staff was extremely friendly and went out of their way to make our stay great.  The only problem I saw was it looked like some outside managers were training the staff on some new breakfast buffet items.  They were very negative with the staff in front of the guests.  Nothing against the hotel, just the people training them.More</t>
   </si>
   <si>
+    <t>689trevorp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r503380496-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1123,6 +1246,9 @@
     <t>This is by far the best hotel we've stayed in while traveling hands down. Room was clean, smelled fresh, comfortable, staff was wonderful and so sweet and kind. Breakfast was always tasty and delish! The pool was clean and refreshing and the hot tub was warm and comfortable after a hard day's traveling.More</t>
   </si>
   <si>
+    <t>H8493TLmarial</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r503055039-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1141,6 +1267,9 @@
     <t>Went to soccer tournament nice that we had breakfast included for the girls to eat before their games not having to rush to get breakfast! That was nice. Business center was nice I was able to catch on up on e-mails. The staff was very helpful and attentive.  Rooms were very clean.More</t>
   </si>
   <si>
+    <t>Crystal D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r500330245-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1168,6 +1297,9 @@
     <t>The staff were all very helpful, the rooms clean and bed comfortable. Easy commute to raceway. They have a list of different restaurants close by they recommend for dinning and there is Starbucks across the street.More</t>
   </si>
   <si>
+    <t>terrylG7421GH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r499824725-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1192,6 +1324,9 @@
     <t>everyone from Manager down the line were helpful and extremely friendly it was one of the most pleasant stays I have ever had. We had no problems everything worked and was extremely clean the continental breakfast was fine two types of waffles along with normal eggs, meats and assorted offeringsMore</t>
   </si>
   <si>
+    <t>A8318LDanitaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r499566321-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1210,6 +1345,9 @@
     <t>This is an elegant place, I enjoyed my stay.When we were tired it  was relaxing to come  and rest. The heat was over 100 degrees but you didn't feel it when you were resting. It is good to have a fresh cup of coffee ready for you and a bagel if you were hungry. We were there for a softball tournament.More</t>
   </si>
   <si>
+    <t>precious0921</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r495913074-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1234,6 +1372,9 @@
     <t>Our check in and check out experience was very smooth and swift. Staff are always courteous and professional! A great stay for a very reasonable price. The location is also great, near gas stations, fast foods and restaurants and grocery. More</t>
   </si>
   <si>
+    <t>RichRey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r495722173-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1261,6 +1402,9 @@
     <t>This hotel is located right off the highway and has a lot of food options within about 1mile radius. The hotel was recently built so the interior is really nice. The wifi here is great. Their high speed is actually high speed. The breakfast is just like every other best western, nothing special. They do have a happy hour from 5pm-7pm were you can go down stairs and they provide you to 2 free drinks soda/beer/wine. That's kinda nice. Get to socialize with the other guests. The rooms are nice, no complaints here. I usually stay here when I travel to this area for work. More</t>
   </si>
   <si>
+    <t>Habibisca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r494906027-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1279,6 +1423,9 @@
     <t>We stayed here for a conference and was very enjoyable. I hit the pool which was very refreshing. Overall a great place to stay. The breakfast is the normal flair but there is a great burger place just across the street for night munchiesMore</t>
   </si>
   <si>
+    <t>U5432AGrickf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r494731238-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1303,6 +1450,9 @@
     <t>I oftentimes stay at BW motels, so I assumed that I would get a find a good room at a decent price.  What I found at Best Western Plus Desert Poppy Inn was more than I expected.  Everything was so clean and fresh.  The staff was courteous and helpful.  The room was extremely comfortable.More</t>
   </si>
   <si>
+    <t>briandenike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r494377618-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1327,6 +1477,9 @@
     <t>This hotel was in great condition and staff were friendly. The suite was incredibly large and the bed and TV were great. We will definitely stay here again. I really can't find anything negative to say.More</t>
   </si>
   <si>
+    <t>N8331QCdennisw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r494146401-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1343,6 +1496,9 @@
   </si>
   <si>
     <t>I was in Lancaster for a conference and had never stayed at a Best Western Plus. It was the same price as other comparable hotels, but it was a lot better than any others I had stayed at in this city. It was clean, the workers were friendly and the breakfast was excellent. This is where I will stay from now on.More</t>
+  </si>
+  <si>
+    <t>Darlene G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r493128214-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
@@ -1373,6 +1529,9 @@
 We had another event we were working and decided to treat ourselves instead of having to drive home and back up in the morning, we love our sleep. Our second stay started alright. The lady at the front was very nice and we were happy to get to our room. At about 11:30PM it sounded like people were running around and wrestling in the room directly above us. We gave it a little time and when it didn't stop my husband called the front desk. A gentleman picked up and told us that they just checked in and to allow some time for them to settle in. He was informed that this was not normal "settling in" noise and they were keeping us from sleeping. He told us that he would give them a call and ask them to keep it down. The noise never stopped and even got worse, now there was yelling and shouting (sounded like kids). My husband had enough, he got out of bed, dressed, and walked to the front...My husband and I stayed here on two separate occasions. Both stays were very different.Our first stay in April was wonderful. We were working an event and found it easier to stay the two nights instead of driving from LA every morning. The staff was nice, the bed was so comfortable, breakfast was delicious. We couldn't wait for our next stay here. It was flawless!We had another event we were working and decided to treat ourselves instead of having to drive home and back up in the morning, we love our sleep. Our second stay started alright. The lady at the front was very nice and we were happy to get to our room. At about 11:30PM it sounded like people were running around and wrestling in the room directly above us. We gave it a little time and when it didn't stop my husband called the front desk. A gentleman picked up and told us that they just checked in and to allow some time for them to settle in. He was informed that this was not normal "settling in" noise and they were keeping us from sleeping. He told us that he would give them a call and ask them to keep it down. The noise never stopped and even got worse, now there was yelling and shouting (sounded like kids). My husband had enough, he got out of bed, dressed, and walked to the front counter to talk to the gentleman personally about the issue (since calling him didn't seem to help). Same reply, he would call the room and ask them to quiet down. The noise lasted until just after 1:00AM. On top of this, the air conditioner couldn't keep up with the temperate in the room and I ended up hot and cold all night long. I would wake up and either put on or have to kick off the blankets. We got maybe only a few hours sleep.Breakfast was good in the morning, We can certainly tell which family kept us up last night. Their kids were running around and yelling, but the parents didn't seem to care as they were on their cell phones (and they had them on speaker!). I was glad when they left. We went back to our room and tried taking a nap before check-out, but that was a big failure.At check-out we were asked how our night was. Well, we told her everything. She apologized that we didn't get a good sleep and asked if we were offered a room change during the incident. We told her that we were not. She shrugged it off and asked us if we would like a receipt. We said yes and she handed it to us and told us to come back and stay with them sometime again. We don't think we'll ever stay here again. We were surprised that we weren't offered any discount off our bill or an complimentary night or something for their inability to control the noisy guests above us.More</t>
   </si>
   <si>
+    <t>SnS515</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r492095768-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1400,6 +1559,9 @@
     <t>BW Plus Desert Poppy Inn is a GREAT hotel &amp; the staff REALLY make you feel welcomed...like you are part of the family!!! There are MANY guests (including us) who always stay here when we are in the area. :-)More</t>
   </si>
   <si>
+    <t>Chris W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r491388844-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1424,6 +1586,9 @@
     <t>Picked a hotel convenient to watching the NBA Championship game.  BW was easy access from freeway, and had good reviews.  Fairly new hotel, nice staff, very attendant staff in breakfast room, and well appointed rooms.More</t>
   </si>
   <si>
+    <t>Antoniette B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r490003973-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1442,6 +1607,9 @@
     <t>Best kept secret in the Antelope Valley. Clean establishment personal employees and easy travel in and out! I highly recommend it for family and friends the only issue I had was the toilet was clogged but fixed!!!!!More</t>
   </si>
   <si>
+    <t>jamal l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r489175645-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1466,6 +1634,9 @@
     <t>Hotel was very clean and spacious, large parking for our 4X4 Dodge Ram and cargo trailer. Lobby was nice and grand, breakfast was overwhelming many options, all types of food and non-dairy milk. This is why i love Best Western, looking out for us lactose and tolerant guests. Plus amazing bed!More</t>
   </si>
   <si>
+    <t>hardballfan22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r488912989-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1488,6 +1659,9 @@
   </si>
   <si>
     <t>Hotel was clean, well located, had a great service ethic, the breakfast was tasty and the internet more than fast enough. A great value. The lication was very convenient to the Lancaster Jethawks minor league baseball stadium. More</t>
+  </si>
+  <si>
+    <t>mini33</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r483936944-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
@@ -1522,6 +1696,9 @@
 We liked the breakfast too in the very cheerful area.  Good variety...We stayed again at the Best Western Lancaster. This time we were there mid week so they have a social reception in the evening.  The wine and tortilla chips with chili and cheese were very good. The staff member who does the social hour is "My Hotel Employee of the Year".  She is amazing! and so friendly and nice. After driving many ours in the car, this made for a great first couple of hours at the hotel.  We then enjoyed the swimming pool.The location of the hotel is very close to the freeway.  If you drive north two exits, you will be on my favorite Road in the US - the Musical Highway.  its a short distance but its a must go to for me each time in Lancaster.  There is a minor league baseball park, huge movie theater (with good food) and several places to dine within a couple of minutes drive of the Best Western.  There is also a gas station adjacent which makes it perfect to fill up on gas for the drive the next day.In terms of the room, since its a newer Best Western, its a great stay.  The king size bed was very comfortable.  The chair, desk and TV are all nice. There is a coffee making area, refrigerator and microwave. Bathroom is nice.Best Western has an elevator.We liked the breakfast too in the very cheerful area.  Good variety of breakfast items from cereal to scrambled eggs to make your own waffles, juice, coffee, and variety of sides.The entire staff is wonderful. Housekeepers do a fantastic job.The hotel services both business and leisure travel and it works wells for both.Its a great place to stay.More</t>
   </si>
   <si>
+    <t>Larry W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r482971035-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1549,6 +1726,9 @@
     <t>The entire facility was always very clean and the Staff was fantastic. Breakfast varied from day to day, but was consistently delicious every day. I throughly enjoyed my stay. It was even warm enough to use the pool. More</t>
   </si>
   <si>
+    <t>189coreyl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r482928199-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1567,6 +1747,9 @@
     <t>We stayed one night.  The hotel in it self was great.  We didn't encounter any issues whatsoever. It was as close as we could get to Edwards Air Force base. There were food locations within a rock throw.More</t>
   </si>
   <si>
+    <t>Bret B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r479375830-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1591,6 +1774,9 @@
     <t>On a late arriving flight to LAX and with 300 miles to drive to home, this property was great to get caught up on sleep after flying 17+ hours.  Bed was great and the overall experience was good. Easy off-on freeway access.More</t>
   </si>
   <si>
+    <t>David N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r478687232-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1609,6 +1795,9 @@
     <t>We came to see the Poppy's and needed a place to stay. This hotel is awesome. Super modern and clean. Everything looked great and our room was very spacious. I will be staying here from now on for all my Lancaster Palmdale visits. Best Hotel in AV.More</t>
   </si>
   <si>
+    <t>qaxalot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r477264913-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1627,6 +1816,9 @@
     <t>I don't usually stay at Best Western hotels, since I haven't been too impressed with them. However, after having read the many good reviews of this place, I thought I'd try it. Very impressed. Nice clean hotel. Great location, close to freeway and fast food (across the street). Although there seemed to be a lot of teenagers here when we checked in (church group, per front desk), the desk noted our reaction to so many kids, and thoughtfully put us on a different floor than they were in. (nice touch) The room was very spacious, quiet, and clean. Nice large counter in the bathroom to put all our toiletries on. There was a nice evening happy hour with free soda or beer (!) and nachos - yum! The included breakfast the next morning was also very good - good selection of hot items (oatmeal, waffles - in 2 sizes, no less!), and cold items too. I would stay at many more Best Western hotels if they were all as nice as this one!More</t>
   </si>
   <si>
+    <t>Beth C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r475829985-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1645,6 +1837,9 @@
     <t>We stayed here while we visited the Poppy reserve. Location was perfect, rooms clean and comfortable, easy drive to the Boulevard District for good food. We had a suite and loved the comfort. Breakfast was an added plus. Not excellent, but more than adequate. More</t>
   </si>
   <si>
+    <t>Wyman C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r475991861-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1660,6 +1855,9 @@
     <t>A clean, fairly new property with good amenities.  Large room and comfortable bed.  Good breakfast choices.  Staff polite and helpful.  Good location relative to town center and located on the road to the Antelope Valley Poppy Reserve.More</t>
   </si>
   <si>
+    <t>Grant R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r475991993-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1675,6 +1873,9 @@
     <t>This hotels seems to show a level of care and pride a step above most places. Well managed hotel where staff work well together and are very helpful. It's not often one will go out of there way to compliment hotel staff as we usually take it for granted. But, this was a step above.More</t>
   </si>
   <si>
+    <t>MsLBL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r472923506-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1699,6 +1900,9 @@
     <t>Convenient location, reasonable price. Relatively new property. Good beds, not crazy about the pillows. Overall a very good choice. Breakfast buffet with good coffee. . . Very important! Easy access on/off freeway with good soundproofing.More</t>
   </si>
   <si>
+    <t>Cali20143</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r472922860-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1720,6 +1924,9 @@
     <t>We are a retired couple who selected this hotel because it's new. The service was friendly and attentive. The breakfast was 'meh'. The rooms are not well soundproofed so we heard our neighbors thumping and moving furniture. Well, maybe not literally, but it sounded that way.  More</t>
   </si>
   <si>
+    <t>Linda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r472758276-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1747,6 +1954,9 @@
     <t>We were delighted with the front desk service we got from Helen and Mel.  Smooth check in, helpful directions to get around town.  Rooms were lovely and quiet. I want to duplicate their bathrooms in my own house! Breakfast was very good, plenty of seating.  Really liked the availability of the microwave in the breakfast area as I like my food really hot.       The Desert Poppy Inn has been the best BW I have stayed at in California, and I spend over 50 nights a year @ Best Westerns. Highly recommended.More</t>
   </si>
   <si>
+    <t>TerreWheeks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r471962066-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1765,6 +1975,9 @@
     <t>This is the nicest Best Western we've ever stayed in!  This Best Western is newer and nicely maintained.  Every Best Western we've stayed in before was an old Motel 6-type motel that had been converted into a Best Western, but none of them were nice or well maintained.  My husband and I spent 2 nights in a king room.  The room was good sized.  It was clean when we checked in and when we returned at the end of the second day.  The bed was very comfortable.  The only negative thing, and it's just a personal preference, is that the pillows are so soft it's like sleeping on a cotton ball with no neck support.  And they don't have firmer pillows.  But it's a minor annoyance.  The shower is good, and there's plenty of counter space in the bathroom.  The hot tub is great.  Breakfast is the usual hotel breakfast items.  The breakfast lady did a good job of keeping the food restocked.  She even went around to every table asking if she could get anyone coffee, and disposing of our plates when we finished.  Neither of these things have EVER happened at any other hotel breakfast before.  We would definitely stay here again if we're ever back in Lancaster.  More</t>
   </si>
   <si>
+    <t>E1787QUjulief</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r471693472-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1783,6 +1996,9 @@
     <t>Went to see the Poppy Reserve - this hotel is located directly off highway on the same street as the reserve.   Very pleasant staff. Great breakfast with room.  Hotel is new with comfy beds!  It's close to the highway but we xxx not hear any traffic noise.  Would recommend this hotel with very helpful staff.More</t>
   </si>
   <si>
+    <t>Winnie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r471790501-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1804,6 +2020,9 @@
     <t>The hotel is fairly new.  The room was extremely comfortable and quiet.  The breakfast area is well maintained, spacious, and had lots of choices for hot and cold breakfast items.   The exercise room equipment works very well .  Hotel staff was very helpful in making recommendations for dinner which turned out to be an excellent place to eat as well.  We will definitely stay here again if we are in the Lancaster area.More</t>
   </si>
   <si>
+    <t>Katrina P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r470453022-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1828,6 +2047,9 @@
     <t>Great staff, very personable and helpful. Amazing room, felt brand new, breakfast had me overwhelmed with the options (Good Thing) And a nice warm pool also. Cant beat the quality for this Best Western, this is why they call is a Plus!More</t>
   </si>
   <si>
+    <t>chevymack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r468058881-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1852,6 +2074,9 @@
     <t>This is a newer hotel in the area. The rooms were very clean and nicely decorated. The front desk staff were outstanding and treated me like an old friend coming to visit. The breakfast included in the morning was fresh and filling. I will definitely stay here again. The only downside is that there is a convenience store at the far end of the parking lot that attracts some questionable people. Most of the times that I looked out the window there was a sherif deputy parked there so it seems like they are working on the situation. More</t>
   </si>
   <si>
+    <t>TADoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r462620618-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1876,6 +2101,9 @@
     <t>We booked a normal twin bed room but they gave us a room with a disabled toilet/bath. The large room might be larger than others since it had a little sitting area. Very clean. I found the free-standing wardrobe a little strange as all the hotels I stayed on this fortnight's trip (all around the same price point) had built-in wardrobes. Room was reasonably insulated from internal and external noise, even though the Interstate is just a stone's throw. Breakfast was average. In-n-Out Burger across the road. Will stay again.More</t>
   </si>
   <si>
+    <t>ynp-CV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r454635511-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1903,6 +2131,9 @@
     <t>I'm a tough critic and I really can't find much negative to say about this hotel.  No one wants to hear the positive and great stuff, they want to know what the problems are.  This hotel seems brand new, even though it is way to the far North of Lancaster.  About the only problem I can mention is that it took forever for the TV to load channels when you switched them.  That was very annoying, but I can't rate the hotel less than 5 stars because of that minor point.  Even the "fake" scrambled eggs weren't bad and the "powdered" orange juice out of the machine wasn't bad either.  Very clean and shiny and I'd stay here again if I was in the area.More</t>
   </si>
   <si>
+    <t>richardcP9809HG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r453818855-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1927,6 +2158,9 @@
     <t>Lady who took my reservation gave me a diff. rate than what she told me over the phone.  She was a bit rude and unprofessional. I stay here whenever there isnt rooms available at the Hilton bout a block away at the same price rangeMore</t>
   </si>
   <si>
+    <t>chrystalm380</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r453720735-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1951,6 +2185,9 @@
     <t>I have been staying at the hotel weekly related to work schedule for the past 3 months. The staff is always kind and friendly. Great service 100% of the time. Although there are other hotels in the area I prefer to stay at the Lancaster Location because the staff makes my stay much more pleasant. I feel safe and valued.More</t>
   </si>
   <si>
+    <t>D B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r447191760-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -1978,6 +2215,9 @@
     <t>Although close to the freeway, it is still quiet.  We had a suite with 2 very comfortable queen beds.  The room is huge and includes a sofa and chair.  The facility is very clean, with friendly staff and good breakfast. The breakfast closes at 9:00 am, which was a bit earlier than we would have liked.  The price is very fair.More</t>
   </si>
   <si>
+    <t>Mahan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r443597024-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2002,6 +2242,9 @@
     <t>Upon arrival I was greeted by Jennifer, who embodies both professionalism and a courteous demeanor. Her smile is contageous. The room was clean and Plush. The hotel is quiet and has the perfect ambience and all the amenities, whether you are there for business or pleasure. At check out, again I was helped by Jennifer who I think is the most, to say the least. Over all, I had a very pleasant stay and will be back next time I'm in the area. More</t>
   </si>
   <si>
+    <t>ZebideeAustralia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r442370291-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2029,6 +2272,9 @@
     <t>We spent 12 days in this hotel - nice rooms, great bed, fridge and microwave in room and good hot breakfasts. It's just off the 14 freeway but road noise wasn't an issue. Highly recommended. The staff were a very cheery crew!More</t>
   </si>
   <si>
+    <t>Destin A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r429563704-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2056,6 +2302,9 @@
     <t>The staff are great professionals and courteous. The rooms are spacious and very clean, very modern. This is the best hotel staff i have ever come across. The facility was amazing and the continental breakfast was great.More</t>
   </si>
   <si>
+    <t>Leiton P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r428920471-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2080,6 +2329,9 @@
     <t>We stayed at this hotel as we moved our daughter to college in town.  The staff made us all feel welcome.  The night staff were accommodating for us to utilize their dining area after hours to play games and visit with family staying at another hotel.More</t>
   </si>
   <si>
+    <t>dutchguy2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r426914022-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2104,6 +2356,9 @@
     <t>Friendly staff, comfortable bed, great variety for breakfast, internet was a bit slow. I would definitely stay here again.  I find it interesting that internet price cannot be matched by hotel staff, eventhough it is Best Western site.   No hassle checking  and checkout.......More</t>
   </si>
   <si>
+    <t>leebN9539TC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r422515521-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2131,6 +2386,9 @@
     <t>We moved from this area about 7 years ago, but return to visit family and friends. Very pleased to have a new option in a great location for our visit. Right off the freeway yet far enough to be quiet.  In n Out Burger right across the street is a plus as well as Highway Patrol office making it a safe area. Very clean and comfortable with a nice breakfast buffet.  All the Employees were very polite and friendly, especially Mel. She checked us in and was very welcoming. She asked how our stay was and if we needed anything each time we came back to the hotel.We will definitely stay here on our future visits.More</t>
   </si>
   <si>
+    <t>HENRY M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r421717929-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2149,6 +2407,9 @@
     <t>this is a great new hotel. Friendly staff and excellent breakfast.The location is good since it right off the freeway and it has all the amenities you need. I would recommend this hotel to everyone and I would stay here again.More</t>
   </si>
   <si>
+    <t>dennis w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r420802427-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2167,6 +2428,9 @@
     <t>A very comfortable property. Clean, well taken care of with excellent beds and very quiet rooms. Breakfast service was better than average. The only fault I can find is not with the hotel but with the City of Lancaster having concrete medians on the streets on two sides of the hotel and No U-turn signs at every corner makes it difficult to enter the property if you are on the opposite side of the streetlMore</t>
   </si>
   <si>
+    <t>Greg R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r419275035-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2191,6 +2455,9 @@
     <t>Stayed here for a night and was pleasantly surprised of the outside look. Due to the nature of my work we are set up for early check in and the woman at the front desk was nice and checked me right in. Requested a first floor room and had no issues getting it. Thanks for a nice stay while working out of town.More</t>
   </si>
   <si>
+    <t>Lisa R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r418804247-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2209,6 +2476,9 @@
     <t>I had to visit a dear friend that was retiring from his job of 30 years. This hotel was convenient for the access of the freeway, area restaurants,  and the best for my wallet. The staff was accommodating,More</t>
   </si>
   <si>
+    <t>830nathanr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r418166223-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2227,6 +2497,9 @@
     <t>Recently stayed at this hotel while in Lancaster for business.  I will plan to return to this location in the future, they do a great job of hosting and it is a nice hotel,  only a year or two old so facility is "very clean and crisp" hotel staff does a great job of hosting guests!More</t>
   </si>
   <si>
+    <t>Kurt W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r412984032-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2251,6 +2524,9 @@
     <t>The staff were not only friendly but INCREDIBLY helpful!!!  The PERFECT place to stay if you're in town to see the Lancaster Jethawks at the Hangar!  If you are, call directly and book with the front desk!More</t>
   </si>
   <si>
+    <t>Tracy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r412421152-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2275,6 +2551,9 @@
     <t>I have stayed here twice It's is super clean , front desk employees always have smiles and welcome us every time.     Jennifer at the front desk and Mary  was awesome toThe breakfast is great my grandson gives it two thumbs up I would love for upper management to maybe do or leave a smaller breakfast for us late risers. No worries.  I understand.  It's as nice as the first year I stayed. So maintenance staff has definitely done a great job!!!  Anna has a great staff I don't know who did my room and it sounds like it's been a couple of people at their outstanding and we can't forget Irvine for maintenance what a great guyIf you are in Lancaster please check them out.  Great job for all that you do   Your guest for the Lancaster area Tracy CreasonMore</t>
   </si>
   <si>
+    <t>Linda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r409833401-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2296,6 +2575,9 @@
     <t>When we travel we usually book rooms at a Best Western.  This particular hotel is probably the best one we have stayed at.  We have stayed here before as we have family that live in Lancaster. Would definitely recommend this Best Western to anyone needing a place to stay in or near Lancaster.More</t>
   </si>
   <si>
+    <t>Dwayne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r399056753-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2323,6 +2605,9 @@
     <t>Lousy night sleep. Bed too hard. Hotel full of noisy contractors. Only one ice machine working on 3rd floor and was always out. Complained about the noise above us. Nothing happened. Started back up at 4-5:30am. Paid $150 and was not impressed. I had to wait 30 minutes while checking in as the people in front of me had the clerk emailing their home office back and forth while my check in took less than 1 minute. This was our 3rd stay here but for the price I think we'll look elsewhere next time.More</t>
   </si>
   <si>
+    <t>Chad P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r393095607-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2347,6 +2632,9 @@
     <t>Nice new location with friendly staff and a nice fitness center. Rooms are huge with working air conditioning and internet. The hotel lobby and hallway were air-conditioned too. Very nice to step in from the heat. Breakfast area is very big with big screen television for news updates. Clean facility right off the freeway. I like it!More</t>
   </si>
   <si>
+    <t>Lorena C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r389621381-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2368,6 +2656,9 @@
     <t>The hotel was clean, safe, and comfortable. I would definitely stay here again.  In addition to the location the location was conveniently located near the freeway and included amenities such as a gym, pool, and breakfast.More</t>
   </si>
   <si>
+    <t>Robert G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r383330900-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2389,6 +2680,9 @@
     <t>I stayed here to attend a ceremony being held at the AV fairgrounds. This hotel is just 1 exit S of the fairgrounds, and across the freeway from the baseball stadium. Its close to downtown Lancaster, a short trip from Palmdale and close to shops and movie theaters. Being brand new, the property is in excellent shape. The staff are super friendly and make you feel right at home. Though most of my activities are typically in Palmdale when I visit the area, I would definitely consider staying here in the future. A special shout out to Rosemary for her excellent hospitality!More</t>
   </si>
   <si>
+    <t>peterpX4789ZB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r383330861-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2410,6 +2704,9 @@
     <t>This is a brand new hotel and is a very close drive to the baseball stadium.  We were very pleased with everything about the hotel, staff, rooms, breakfast.  We will return to this lovely little gem and will advise our friends and family to stay there.More</t>
   </si>
   <si>
+    <t>PAUL M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r383330833-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2428,6 +2725,9 @@
     <t>will stay again. pictures on the website are accurate and real. breakfast was good. rooms were clean and bed comfortable. the hotel is close to fwy, mall, market, ampm, and 12 mins away from lancaster soccer centerMore</t>
   </si>
   <si>
+    <t>TravelerPaul18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r364244303-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2449,6 +2749,9 @@
     <t>No surprises.  Everything as expected.  No problems.  I found front desk (melissa) to be friendly and very competent (especially when we extended our stay.Down graded to **** because access is a bit weird,  Also weekends are cheaper than weekdays.  Weekday rates are much higher than the BW down the road in Palmdale.More</t>
   </si>
   <si>
+    <t>Summerasalifestyle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r355432547-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2476,6 +2779,9 @@
     <t>Started really bad...2:15 pm.Day Front desk (Jennifer) has a bad attitude and is just mumbling over and over...No early check-in...check-in is 3.  I watched and listed as she told every single person that their room was still being cleaned.  I never saw her check the computer.New front desk (Rosemary) is quite professional and competentMy room ( 318) is really large- almost with a sitting room area Room is clean, average linens and bed comfortStandard free breakfast with pastries, cereals, coffees, juices, etcBest Western style and quality.   Glad the Evening front desk saved the experience.Moved from below average and never to return...To average and pleasant.More</t>
   </si>
   <si>
+    <t>Flash2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r354099570-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2500,6 +2806,9 @@
     <t>Nicely decorated room! Breakfast and parking included. Breakfast was a bit more than you usually get with complimentary breakfast (scrambled eggs, sausage, bacon, toast, cereal, coffee, juice, fruit and some pastries).More</t>
   </si>
   <si>
+    <t>Chris Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r321046049-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2527,6 +2836,9 @@
     <t>Stayed for 4 nights with my wife on a vacation.From the friendliness of the Front Dest staff (day and night), the full breakfasts, the decent wi-fi speed/connectivity, comfy bed, the quiet a/c unit, the maid servicing, the cleanliness, and the general location -- this was a great place to stay!It's just north of "downtown" Lancaster, 7 min north of Palmdale, 15 min southwest of Edwards AFB, and just off Hwy 14.Only "awkward" part was trying to return to the freeway every morning for travel.  It necessitates crossing 3 lanes of traffic within 50 yds of a stoplight to get to the left-turn lane where you need to pull a u-turn to access the freeway on-ramps.  Not a "show-stopper", just a little weird....Overall, would very much recommend the place, and will stay there again if we're ever in the area again!More</t>
   </si>
   <si>
+    <t>cococly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r320317523-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2554,6 +2866,9 @@
     <t>Friendly Staff, New Hotel (opened in July 2015?), Fast Internet! (40mbps!) Small but alright Gym, indoor pool, lots of parking spaces. Free coffee all day.One slight downside was not enough hot food during breakfast. I only had a toast.... and some fruit. Eggs and other proteins were all gone, without replenishmentMore</t>
   </si>
   <si>
+    <t>Vicky L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r319605989-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2578,6 +2893,9 @@
     <t>This hotel is beautiful and still smells brand new! The rooms are so comfortable and decorated very nicely. We stayed here with our 4 year old and 1 year old sons. The staff is so kind and helpful! Great pool and hot tub, we were the only ones in them last night. Nice breakfast selection, free Wi-Fi, very very clean and right across the street from In-N-Out and Starbucks. One of the best hotels I've ever stayed in and highly recommended!! Thank you so much Desert Poppy Inn!!!More</t>
   </si>
   <si>
+    <t>Isaac Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r301156956-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2605,6 +2923,9 @@
     <t>Stayed here overnight on a business trip and I highly enjoyed it. Staff was very friendly and rooms were amazing. No traffic noise, no suspicious people walking around. I would definitely stay here again. Highly recommended. More</t>
   </si>
   <si>
+    <t>DB C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r293492694-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
   </si>
   <si>
@@ -2630,6 +2951,9 @@
   </si>
   <si>
     <t>A wonderful new modern place to stay in Lancaster.  Great quality comfort at an affordable rate! This stop was quite a surprise for us, seeing this new beautiful motel right off of Ave. I and the 14 freeway.More</t>
+  </si>
+  <si>
+    <t>Rod R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d8004975-r289715127-Best_Western_Plus_Desert_Poppy_Inn-Lancaster_California.html</t>
@@ -3152,43 +3476,47 @@
       <c r="A2" t="n">
         <v>56605</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -3210,56 +3538,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56605</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>19206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3275,56 +3607,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>56605</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -3342,56 +3678,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56605</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -3409,56 +3749,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56605</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3470,56 +3814,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56605</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3541,56 +3889,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="X7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56605</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3602,56 +3954,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56605</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3663,56 +4019,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56605</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3734,56 +4094,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56605</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3805,56 +4169,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56605</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>6994</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3866,56 +4234,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56605</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3937,56 +4309,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56605</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -4008,56 +4384,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56605</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>18121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -4079,56 +4459,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="X15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56605</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>11115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -4150,56 +4534,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56605</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>155130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -4221,56 +4609,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56605</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>14253</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4282,56 +4674,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="X18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56605</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4343,56 +4739,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="X19" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56605</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>155132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4414,56 +4814,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56605</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>155133</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O21" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4479,56 +4883,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="X21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56605</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>155134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="J22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4544,56 +4952,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="X22" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Y22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56605</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>239</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O23" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4611,56 +5023,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="X23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56605</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>155136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>248</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4678,56 +5094,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="X24" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="Y24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>56605</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4749,56 +5169,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="X25" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="Y25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>56605</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>260</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="J26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="K26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4810,56 +5234,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="X26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="Y26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>56605</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>155139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="J27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="K27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="L27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4881,56 +5309,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="X27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="Y27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>56605</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>278</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="J28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="K28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O28" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4952,56 +5384,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="Y28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>56605</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>287</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="J29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="K29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="L29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -5023,56 +5459,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="X29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="Y29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>56605</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>61648</v>
+      </c>
+      <c r="C30" t="s">
+        <v>297</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="J30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="K30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="L30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="O30" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -5094,56 +5534,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="X30" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="Y30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>56605</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>155142</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="J31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -5165,56 +5609,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="X31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="Y31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>56605</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>155143</v>
+      </c>
+      <c r="C32" t="s">
+        <v>313</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="J32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="K32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -5236,56 +5684,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="X32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="Y32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>56605</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>4632</v>
+      </c>
+      <c r="C33" t="s">
+        <v>322</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="J33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="K33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="L33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -5307,56 +5759,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="X33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="Y33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>56605</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>155144</v>
+      </c>
+      <c r="C34" t="s">
+        <v>332</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="J34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="K34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="L34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="O34" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -5378,56 +5834,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="X34" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="Y34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>56605</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>9427</v>
+      </c>
+      <c r="C35" t="s">
+        <v>339</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="J35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="K35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="L35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="O35" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5449,56 +5909,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="X35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="Y35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>56605</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>155145</v>
+      </c>
+      <c r="C36" t="s">
+        <v>348</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="J36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="K36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="L36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5520,56 +5984,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="X36" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="Y36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>56605</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>155146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>357</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="J37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="K37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="L37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -5587,56 +6055,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="X37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="Y37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>56605</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>155147</v>
+      </c>
+      <c r="C38" t="s">
+        <v>367</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="J38" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="K38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="L38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5658,56 +6130,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="X38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="Y38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>56605</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>155148</v>
+      </c>
+      <c r="C39" t="s">
+        <v>376</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="J39" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="K39" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="L39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5719,56 +6195,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="X39" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="Y39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>56605</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>155149</v>
+      </c>
+      <c r="C40" t="s">
+        <v>382</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="J40" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="K40" t="s">
         <v>10</v>
       </c>
       <c r="L40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="O40" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5780,47 +6260,51 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="X40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="Y40" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>56605</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155150</v>
+      </c>
+      <c r="C41" t="s">
+        <v>390</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="J41" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="K41" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="L41" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
@@ -5837,56 +6321,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="X41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="Y41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>56605</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>155151</v>
+      </c>
+      <c r="C42" t="s">
+        <v>399</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="J42" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="K42" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="L42" t="s">
+        <v>404</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
         <v>363</v>
       </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>327</v>
-      </c>
       <c r="O42" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5908,56 +6396,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="X42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="Y42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>56605</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>155152</v>
+      </c>
+      <c r="C43" t="s">
+        <v>408</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J43" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="K43" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="L43" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="O43" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5979,56 +6471,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="X43" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="Y43" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>56605</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>87983</v>
+      </c>
+      <c r="C44" t="s">
+        <v>415</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="J44" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="K44" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="L44" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -6040,56 +6536,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="X44" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="Y44" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>56605</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>155153</v>
+      </c>
+      <c r="C45" t="s">
+        <v>425</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="J45" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="K45" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="L45" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="O45" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -6111,56 +6611,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="X45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="Y45" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>56605</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>155154</v>
+      </c>
+      <c r="C46" t="s">
+        <v>434</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="J46" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="K46" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="L46" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="O46" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -6182,56 +6686,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="X46" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="Y46" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>56605</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>155155</v>
+      </c>
+      <c r="C47" t="s">
+        <v>441</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="J47" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="K47" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="L47" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -6253,56 +6761,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="X47" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="Y47" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>56605</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155156</v>
+      </c>
+      <c r="C48" t="s">
+        <v>450</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="J48" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="K48" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="L48" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -6314,47 +6826,51 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="X48" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="Y48" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>56605</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>155157</v>
+      </c>
+      <c r="C49" t="s">
+        <v>460</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="J49" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="K49" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="L49" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -6371,56 +6887,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="X49" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="Y49" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>56605</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155158</v>
+      </c>
+      <c r="C50" t="s">
+        <v>467</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="J50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="K50" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="L50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6442,56 +6962,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="X50" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="Y50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>56605</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>155159</v>
+      </c>
+      <c r="C51" t="s">
+        <v>476</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="J51" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="K51" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="L51" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="O51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6509,56 +7033,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="X51" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="Y51" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>56605</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>155160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>485</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="J52" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="K52" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="L52" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6580,56 +7108,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="X52" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="Y52" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>56605</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>108199</v>
+      </c>
+      <c r="C53" t="s">
+        <v>492</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="J53" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="K53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="L53" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="O53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -6647,56 +7179,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="X53" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="Y53" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>56605</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>155161</v>
+      </c>
+      <c r="C54" t="s">
+        <v>501</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="J54" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="K54" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="L54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="O54" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6718,56 +7254,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="X54" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="Y54" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>56605</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C55" t="s">
+        <v>511</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="J55" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="K55" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="L55" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="O55" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6783,56 +7323,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="X55" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="Y55" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>56605</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>155162</v>
+      </c>
+      <c r="C56" t="s">
+        <v>520</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="J56" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="K56" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="L56" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="O56" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6854,56 +7398,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="X56" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="Y56" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>56605</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>155163</v>
+      </c>
+      <c r="C57" t="s">
+        <v>527</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="J57" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="K57" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="L57" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6919,56 +7467,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="X57" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="Y57" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>56605</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>155164</v>
+      </c>
+      <c r="C58" t="s">
+        <v>536</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="J58" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="K58" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="L58" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="O58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6990,56 +7542,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="X58" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="Y58" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>56605</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>133094</v>
+      </c>
+      <c r="C59" t="s">
+        <v>545</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="J59" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="K59" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="L59" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="O59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -7055,56 +7611,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="X59" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="Y59" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>56605</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>18699</v>
+      </c>
+      <c r="C60" t="s">
+        <v>554</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="J60" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="K60" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="L60" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -7116,56 +7676,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="X60" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="Y60" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>56605</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>155165</v>
+      </c>
+      <c r="C61" t="s">
+        <v>564</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="J61" t="s">
+        <v>567</v>
+      </c>
+      <c r="K61" t="s">
+        <v>568</v>
+      </c>
+      <c r="L61" t="s">
+        <v>569</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
         <v>507</v>
       </c>
-      <c r="K61" t="s">
-        <v>508</v>
-      </c>
-      <c r="L61" t="s">
-        <v>509</v>
-      </c>
-      <c r="M61" t="n">
-        <v>5</v>
-      </c>
-      <c r="N61" t="s">
-        <v>454</v>
-      </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -7187,56 +7751,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="X61" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="Y61" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>56605</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>49345</v>
+      </c>
+      <c r="C62" t="s">
+        <v>571</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="J62" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="K62" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="L62" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="O62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -7258,56 +7826,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="X62" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="Y62" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>56605</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>9060</v>
+      </c>
+      <c r="C63" t="s">
+        <v>580</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="J63" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="K63" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="L63" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="O63" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="n">
@@ -7323,56 +7895,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="X63" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="Y63" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>56605</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>155166</v>
+      </c>
+      <c r="C64" t="s">
+        <v>587</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="J64" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
       <c r="K64" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
       <c r="L64" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="O64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7388,56 +7964,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="X64" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="Y64" t="s">
-        <v>530</v>
+        <v>593</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>56605</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>10903</v>
+      </c>
+      <c r="C65" t="s">
+        <v>594</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="J65" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="K65" t="s">
-        <v>534</v>
+        <v>598</v>
       </c>
       <c r="L65" t="s">
-        <v>535</v>
+        <v>599</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="O65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7459,56 +8039,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="X65" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="Y65" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>56605</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>155167</v>
+      </c>
+      <c r="C66" t="s">
+        <v>601</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>537</v>
+        <v>602</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
       <c r="J66" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="K66" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
       <c r="L66" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="O66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7530,56 +8114,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="X66" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="Y66" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>56605</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>58008</v>
+      </c>
+      <c r="C67" t="s">
+        <v>607</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="J67" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="K67" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="L67" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="O67" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7601,56 +8189,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="X67" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="Y67" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>56605</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>155168</v>
+      </c>
+      <c r="C68" t="s">
+        <v>613</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="J68" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="K68" t="s">
-        <v>550</v>
+        <v>617</v>
       </c>
       <c r="L68" t="s">
-        <v>551</v>
+        <v>618</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="O68" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7662,56 +8254,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>552</v>
+        <v>619</v>
       </c>
       <c r="X68" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="Y68" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>56605</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>155169</v>
+      </c>
+      <c r="C69" t="s">
+        <v>622</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>555</v>
+        <v>623</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>556</v>
+        <v>624</v>
       </c>
       <c r="J69" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="K69" t="s">
-        <v>557</v>
+        <v>625</v>
       </c>
       <c r="L69" t="s">
-        <v>558</v>
+        <v>626</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="O69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7733,56 +8329,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="X69" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="Y69" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>56605</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>6449</v>
+      </c>
+      <c r="C70" t="s">
+        <v>630</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>562</v>
+        <v>631</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>563</v>
+        <v>632</v>
       </c>
       <c r="J70" t="s">
-        <v>564</v>
+        <v>633</v>
       </c>
       <c r="K70" t="s">
-        <v>565</v>
+        <v>634</v>
       </c>
       <c r="L70" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="O70" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7794,56 +8394,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="X70" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="Y70" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>56605</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>155170</v>
+      </c>
+      <c r="C71" t="s">
+        <v>640</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>571</v>
+        <v>641</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
       <c r="J71" t="s">
-        <v>573</v>
+        <v>643</v>
       </c>
       <c r="K71" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="L71" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="O71" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7855,56 +8459,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="X71" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="Y71" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>56605</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>155171</v>
+      </c>
+      <c r="C72" t="s">
+        <v>647</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>577</v>
+        <v>648</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
       <c r="J72" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
       <c r="K72" t="s">
-        <v>580</v>
+        <v>651</v>
       </c>
       <c r="L72" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="O72" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -7926,56 +8534,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="X72" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="Y72" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>56605</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>155172</v>
+      </c>
+      <c r="C73" t="s">
+        <v>654</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>583</v>
+        <v>655</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>584</v>
+        <v>656</v>
       </c>
       <c r="J73" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
       <c r="K73" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
       <c r="L73" t="s">
-        <v>586</v>
+        <v>658</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="O73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7997,56 +8609,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="X73" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="Y73" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>56605</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>155173</v>
+      </c>
+      <c r="C74" t="s">
+        <v>662</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>590</v>
+        <v>663</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>591</v>
+        <v>664</v>
       </c>
       <c r="J74" t="s">
-        <v>592</v>
+        <v>665</v>
       </c>
       <c r="K74" t="s">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="L74" t="s">
-        <v>594</v>
+        <v>667</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="O74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -8064,56 +8680,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>595</v>
+        <v>668</v>
       </c>
       <c r="X74" t="s">
-        <v>596</v>
+        <v>669</v>
       </c>
       <c r="Y74" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>56605</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>155174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>671</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
       <c r="J75" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="K75" t="s">
-        <v>601</v>
+        <v>675</v>
       </c>
       <c r="L75" t="s">
-        <v>602</v>
+        <v>676</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -8135,56 +8755,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>603</v>
+        <v>677</v>
       </c>
       <c r="X75" t="s">
-        <v>604</v>
+        <v>678</v>
       </c>
       <c r="Y75" t="s">
-        <v>605</v>
+        <v>679</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>56605</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>155175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>680</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="J76" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
       <c r="K76" t="s">
-        <v>609</v>
+        <v>684</v>
       </c>
       <c r="L76" t="s">
-        <v>610</v>
+        <v>685</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -8202,56 +8826,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>611</v>
+        <v>686</v>
       </c>
       <c r="X76" t="s">
-        <v>612</v>
+        <v>687</v>
       </c>
       <c r="Y76" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>56605</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>155176</v>
+      </c>
+      <c r="C77" t="s">
+        <v>689</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>615</v>
+        <v>691</v>
       </c>
       <c r="J77" t="s">
-        <v>616</v>
+        <v>692</v>
       </c>
       <c r="K77" t="s">
-        <v>617</v>
+        <v>693</v>
       </c>
       <c r="L77" t="s">
-        <v>618</v>
+        <v>694</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>619</v>
+        <v>695</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -8269,56 +8897,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>620</v>
+        <v>696</v>
       </c>
       <c r="X77" t="s">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="Y77" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>56605</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>155177</v>
+      </c>
+      <c r="C78" t="s">
+        <v>699</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>623</v>
+        <v>700</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>624</v>
+        <v>701</v>
       </c>
       <c r="J78" t="s">
-        <v>625</v>
+        <v>702</v>
       </c>
       <c r="K78" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="L78" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>619</v>
+        <v>695</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -8340,56 +8972,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="X78" t="s">
-        <v>629</v>
+        <v>706</v>
       </c>
       <c r="Y78" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>56605</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>155178</v>
+      </c>
+      <c r="C79" t="s">
+        <v>708</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>631</v>
+        <v>709</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>632</v>
+        <v>710</v>
       </c>
       <c r="J79" t="s">
-        <v>633</v>
+        <v>711</v>
       </c>
       <c r="K79" t="s">
-        <v>634</v>
+        <v>712</v>
       </c>
       <c r="L79" t="s">
-        <v>635</v>
+        <v>713</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>619</v>
+        <v>695</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8411,56 +9047,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>636</v>
+        <v>714</v>
       </c>
       <c r="X79" t="s">
-        <v>637</v>
+        <v>715</v>
       </c>
       <c r="Y79" t="s">
-        <v>638</v>
+        <v>716</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>56605</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>61701</v>
+      </c>
+      <c r="C80" t="s">
+        <v>717</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>639</v>
+        <v>718</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>640</v>
+        <v>719</v>
       </c>
       <c r="J80" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="K80" t="s">
-        <v>642</v>
+        <v>721</v>
       </c>
       <c r="L80" t="s">
-        <v>643</v>
+        <v>722</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="O80" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
@@ -8478,56 +9118,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="X80" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
       <c r="Y80" t="s">
-        <v>647</v>
+        <v>726</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>56605</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>155179</v>
+      </c>
+      <c r="C81" t="s">
+        <v>727</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>649</v>
+        <v>729</v>
       </c>
       <c r="J81" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="K81" t="s">
-        <v>651</v>
+        <v>731</v>
       </c>
       <c r="L81" t="s">
-        <v>652</v>
+        <v>732</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="O81" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -8539,56 +9183,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>653</v>
+        <v>733</v>
       </c>
       <c r="X81" t="s">
-        <v>654</v>
+        <v>734</v>
       </c>
       <c r="Y81" t="s">
-        <v>655</v>
+        <v>735</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>56605</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>155180</v>
+      </c>
+      <c r="C82" t="s">
+        <v>736</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
       <c r="J82" t="s">
-        <v>658</v>
+        <v>739</v>
       </c>
       <c r="K82" t="s">
-        <v>659</v>
+        <v>740</v>
       </c>
       <c r="L82" t="s">
-        <v>660</v>
+        <v>741</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>661</v>
+        <v>742</v>
       </c>
       <c r="O82" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="s"/>
@@ -8600,56 +9248,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>662</v>
+        <v>743</v>
       </c>
       <c r="X82" t="s">
-        <v>663</v>
+        <v>744</v>
       </c>
       <c r="Y82" t="s">
-        <v>664</v>
+        <v>745</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>56605</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>155181</v>
+      </c>
+      <c r="C83" t="s">
+        <v>746</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
       <c r="J83" t="s">
-        <v>667</v>
+        <v>749</v>
       </c>
       <c r="K83" t="s">
-        <v>668</v>
+        <v>750</v>
       </c>
       <c r="L83" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>670</v>
+        <v>752</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8671,56 +9323,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>671</v>
+        <v>753</v>
       </c>
       <c r="X83" t="s">
-        <v>672</v>
+        <v>754</v>
       </c>
       <c r="Y83" t="s">
-        <v>673</v>
+        <v>755</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>56605</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>155182</v>
+      </c>
+      <c r="C84" t="s">
+        <v>756</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>674</v>
+        <v>757</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>675</v>
+        <v>758</v>
       </c>
       <c r="J84" t="s">
-        <v>676</v>
+        <v>759</v>
       </c>
       <c r="K84" t="s">
-        <v>677</v>
+        <v>760</v>
       </c>
       <c r="L84" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>679</v>
+        <v>762</v>
       </c>
       <c r="O84" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8738,56 +9394,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>680</v>
+        <v>763</v>
       </c>
       <c r="X84" t="s">
-        <v>672</v>
+        <v>754</v>
       </c>
       <c r="Y84" t="s">
-        <v>681</v>
+        <v>764</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>56605</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>155183</v>
+      </c>
+      <c r="C85" t="s">
+        <v>765</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>682</v>
+        <v>766</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>683</v>
+        <v>767</v>
       </c>
       <c r="J85" t="s">
-        <v>684</v>
+        <v>768</v>
       </c>
       <c r="K85" t="s">
-        <v>685</v>
+        <v>769</v>
       </c>
       <c r="L85" t="s">
-        <v>686</v>
+        <v>770</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>670</v>
+        <v>752</v>
       </c>
       <c r="O85" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8809,56 +9469,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>687</v>
+        <v>771</v>
       </c>
       <c r="X85" t="s">
-        <v>688</v>
+        <v>772</v>
       </c>
       <c r="Y85" t="s">
-        <v>689</v>
+        <v>773</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>56605</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>155184</v>
+      </c>
+      <c r="C86" t="s">
+        <v>774</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>690</v>
+        <v>775</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>691</v>
+        <v>776</v>
       </c>
       <c r="J86" t="s">
-        <v>692</v>
+        <v>777</v>
       </c>
       <c r="K86" t="s">
-        <v>693</v>
+        <v>778</v>
       </c>
       <c r="L86" t="s">
-        <v>694</v>
+        <v>779</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>695</v>
+        <v>780</v>
       </c>
       <c r="O86" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8874,56 +9538,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>696</v>
+        <v>781</v>
       </c>
       <c r="X86" t="s">
-        <v>697</v>
+        <v>782</v>
       </c>
       <c r="Y86" t="s">
-        <v>698</v>
+        <v>783</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>56605</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>155185</v>
+      </c>
+      <c r="C87" t="s">
+        <v>784</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>699</v>
+        <v>785</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>700</v>
+        <v>786</v>
       </c>
       <c r="J87" t="s">
-        <v>701</v>
+        <v>787</v>
       </c>
       <c r="K87" t="s">
-        <v>702</v>
+        <v>788</v>
       </c>
       <c r="L87" t="s">
-        <v>703</v>
+        <v>789</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>695</v>
+        <v>780</v>
       </c>
       <c r="O87" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8945,56 +9613,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>696</v>
+        <v>781</v>
       </c>
       <c r="X87" t="s">
-        <v>697</v>
+        <v>782</v>
       </c>
       <c r="Y87" t="s">
-        <v>704</v>
+        <v>790</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>56605</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>155186</v>
+      </c>
+      <c r="C88" t="s">
+        <v>791</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>706</v>
+        <v>793</v>
       </c>
       <c r="J88" t="s">
-        <v>707</v>
+        <v>794</v>
       </c>
       <c r="K88" t="s">
-        <v>708</v>
+        <v>795</v>
       </c>
       <c r="L88" t="s">
-        <v>709</v>
+        <v>796</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>695</v>
+        <v>780</v>
       </c>
       <c r="O88" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -9016,56 +9688,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>696</v>
+        <v>781</v>
       </c>
       <c r="X88" t="s">
-        <v>697</v>
+        <v>782</v>
       </c>
       <c r="Y88" t="s">
-        <v>710</v>
+        <v>797</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>56605</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>14072</v>
+      </c>
+      <c r="C89" t="s">
+        <v>798</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>711</v>
+        <v>799</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>712</v>
+        <v>800</v>
       </c>
       <c r="J89" t="s">
-        <v>713</v>
+        <v>801</v>
       </c>
       <c r="K89" t="s">
-        <v>714</v>
+        <v>802</v>
       </c>
       <c r="L89" t="s">
-        <v>715</v>
+        <v>803</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>695</v>
+        <v>780</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="s"/>
       <c r="Q89" t="n">
@@ -9083,56 +9759,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>716</v>
+        <v>804</v>
       </c>
       <c r="X89" t="s">
-        <v>717</v>
+        <v>805</v>
       </c>
       <c r="Y89" t="s">
-        <v>718</v>
+        <v>806</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>56605</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>8799</v>
+      </c>
+      <c r="C90" t="s">
+        <v>807</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>719</v>
+        <v>808</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>720</v>
+        <v>809</v>
       </c>
       <c r="J90" t="s">
-        <v>721</v>
+        <v>810</v>
       </c>
       <c r="K90" t="s">
-        <v>722</v>
+        <v>811</v>
       </c>
       <c r="L90" t="s">
-        <v>723</v>
+        <v>812</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>695</v>
+        <v>780</v>
       </c>
       <c r="O90" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -9154,56 +9834,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>716</v>
+        <v>804</v>
       </c>
       <c r="X90" t="s">
-        <v>717</v>
+        <v>805</v>
       </c>
       <c r="Y90" t="s">
-        <v>724</v>
+        <v>813</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>56605</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>155187</v>
+      </c>
+      <c r="C91" t="s">
+        <v>814</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>725</v>
+        <v>815</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>726</v>
+        <v>816</v>
       </c>
       <c r="J91" t="s">
-        <v>727</v>
+        <v>817</v>
       </c>
       <c r="K91" t="s">
-        <v>728</v>
+        <v>818</v>
       </c>
       <c r="L91" t="s">
-        <v>729</v>
+        <v>819</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>695</v>
+        <v>780</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9225,56 +9909,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>716</v>
+        <v>804</v>
       </c>
       <c r="X91" t="s">
-        <v>717</v>
+        <v>805</v>
       </c>
       <c r="Y91" t="s">
-        <v>730</v>
+        <v>820</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>56605</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>92634</v>
+      </c>
+      <c r="C92" t="s">
+        <v>821</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>731</v>
+        <v>822</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>732</v>
+        <v>823</v>
       </c>
       <c r="J92" t="s">
-        <v>733</v>
+        <v>824</v>
       </c>
       <c r="K92" t="s">
-        <v>734</v>
+        <v>825</v>
       </c>
       <c r="L92" t="s">
-        <v>735</v>
+        <v>826</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>679</v>
+        <v>762</v>
       </c>
       <c r="O92" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9296,47 +9984,51 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>736</v>
+        <v>827</v>
       </c>
       <c r="X92" t="s">
-        <v>737</v>
+        <v>828</v>
       </c>
       <c r="Y92" t="s">
-        <v>738</v>
+        <v>829</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>56605</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>10264</v>
+      </c>
+      <c r="C93" t="s">
+        <v>830</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>739</v>
+        <v>831</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>740</v>
+        <v>832</v>
       </c>
       <c r="J93" t="s">
-        <v>741</v>
+        <v>833</v>
       </c>
       <c r="K93" t="s">
-        <v>742</v>
+        <v>834</v>
       </c>
       <c r="L93" t="s">
-        <v>743</v>
+        <v>835</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
@@ -9353,56 +10045,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>744</v>
+        <v>836</v>
       </c>
       <c r="X93" t="s">
-        <v>745</v>
+        <v>837</v>
       </c>
       <c r="Y93" t="s">
-        <v>746</v>
+        <v>838</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>56605</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>358</v>
+      </c>
+      <c r="C94" t="s">
+        <v>839</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>747</v>
+        <v>840</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>748</v>
+        <v>841</v>
       </c>
       <c r="J94" t="s">
-        <v>749</v>
+        <v>842</v>
       </c>
       <c r="K94" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="L94" t="s">
-        <v>750</v>
+        <v>843</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>679</v>
+        <v>762</v>
       </c>
       <c r="O94" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9424,56 +10120,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>751</v>
+        <v>844</v>
       </c>
       <c r="X94" t="s">
-        <v>752</v>
+        <v>845</v>
       </c>
       <c r="Y94" t="s">
-        <v>753</v>
+        <v>846</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>56605</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>73888</v>
+      </c>
+      <c r="C95" t="s">
+        <v>847</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>754</v>
+        <v>848</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>755</v>
+        <v>849</v>
       </c>
       <c r="J95" t="s">
-        <v>756</v>
+        <v>850</v>
       </c>
       <c r="K95" t="s">
-        <v>757</v>
+        <v>851</v>
       </c>
       <c r="L95" t="s">
-        <v>758</v>
+        <v>852</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>759</v>
+        <v>853</v>
       </c>
       <c r="O95" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P95" t="n">
         <v>2</v>
@@ -9495,56 +10195,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>760</v>
+        <v>854</v>
       </c>
       <c r="X95" t="s">
-        <v>761</v>
+        <v>855</v>
       </c>
       <c r="Y95" t="s">
-        <v>762</v>
+        <v>856</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>56605</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>15963</v>
+      </c>
+      <c r="C96" t="s">
+        <v>857</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>763</v>
+        <v>858</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>764</v>
+        <v>859</v>
       </c>
       <c r="J96" t="s">
-        <v>765</v>
+        <v>860</v>
       </c>
       <c r="K96" t="s">
-        <v>766</v>
+        <v>861</v>
       </c>
       <c r="L96" t="s">
-        <v>767</v>
+        <v>862</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>759</v>
+        <v>853</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9566,56 +10270,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>768</v>
+        <v>863</v>
       </c>
       <c r="X96" t="s">
-        <v>769</v>
+        <v>864</v>
       </c>
       <c r="Y96" t="s">
-        <v>770</v>
+        <v>865</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>56605</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>155188</v>
+      </c>
+      <c r="C97" t="s">
+        <v>866</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>771</v>
+        <v>867</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>772</v>
+        <v>868</v>
       </c>
       <c r="J97" t="s">
-        <v>773</v>
+        <v>869</v>
       </c>
       <c r="K97" t="s">
-        <v>774</v>
+        <v>870</v>
       </c>
       <c r="L97" t="s">
-        <v>775</v>
+        <v>871</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>759</v>
+        <v>853</v>
       </c>
       <c r="O97" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9637,56 +10345,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>776</v>
+        <v>872</v>
       </c>
       <c r="X97" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="Y97" t="s">
-        <v>777</v>
+        <v>873</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>56605</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>634</v>
+      </c>
+      <c r="C98" t="s">
+        <v>874</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>778</v>
+        <v>875</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>779</v>
+        <v>876</v>
       </c>
       <c r="J98" t="s">
-        <v>780</v>
+        <v>877</v>
       </c>
       <c r="K98" t="s">
-        <v>781</v>
+        <v>878</v>
       </c>
       <c r="L98" t="s">
-        <v>782</v>
+        <v>879</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>783</v>
+        <v>880</v>
       </c>
       <c r="O98" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9708,56 +10420,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="X98" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="Y98" t="s">
-        <v>784</v>
+        <v>881</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>56605</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>155189</v>
+      </c>
+      <c r="C99" t="s">
+        <v>882</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>785</v>
+        <v>883</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>786</v>
+        <v>884</v>
       </c>
       <c r="J99" t="s">
-        <v>787</v>
+        <v>885</v>
       </c>
       <c r="K99" t="s">
-        <v>788</v>
+        <v>886</v>
       </c>
       <c r="L99" t="s">
-        <v>789</v>
+        <v>887</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>790</v>
+        <v>888</v>
       </c>
       <c r="O99" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9779,56 +10495,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="X99" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="Y99" t="s">
-        <v>791</v>
+        <v>889</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>56605</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>155190</v>
+      </c>
+      <c r="C100" t="s">
+        <v>890</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>792</v>
+        <v>891</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>793</v>
+        <v>892</v>
       </c>
       <c r="J100" t="s">
-        <v>794</v>
+        <v>893</v>
       </c>
       <c r="K100" t="s">
-        <v>795</v>
+        <v>894</v>
       </c>
       <c r="L100" t="s">
-        <v>796</v>
+        <v>895</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>790</v>
+        <v>888</v>
       </c>
       <c r="O100" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9850,56 +10570,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="X100" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="Y100" t="s">
-        <v>797</v>
+        <v>896</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>56605</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>155191</v>
+      </c>
+      <c r="C101" t="s">
+        <v>897</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>798</v>
+        <v>898</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>799</v>
+        <v>899</v>
       </c>
       <c r="J101" t="s">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K101" t="s">
-        <v>801</v>
+        <v>901</v>
       </c>
       <c r="L101" t="s">
-        <v>802</v>
+        <v>902</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>803</v>
+        <v>903</v>
       </c>
       <c r="O101" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9917,56 +10641,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="X101" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="Y101" t="s">
-        <v>804</v>
+        <v>904</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>56605</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>155192</v>
+      </c>
+      <c r="C102" t="s">
+        <v>905</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>805</v>
+        <v>906</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>806</v>
+        <v>907</v>
       </c>
       <c r="J102" t="s">
-        <v>807</v>
+        <v>908</v>
       </c>
       <c r="K102" t="s">
-        <v>808</v>
+        <v>909</v>
       </c>
       <c r="L102" t="s">
-        <v>809</v>
+        <v>910</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>810</v>
+        <v>911</v>
       </c>
       <c r="O102" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P102" t="s"/>
       <c r="Q102" t="s"/>
@@ -9982,56 +10710,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>811</v>
+        <v>912</v>
       </c>
       <c r="X102" t="s">
-        <v>812</v>
+        <v>913</v>
       </c>
       <c r="Y102" t="s">
-        <v>813</v>
+        <v>914</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>56605</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>155193</v>
+      </c>
+      <c r="C103" t="s">
+        <v>915</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>814</v>
+        <v>916</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>815</v>
+        <v>917</v>
       </c>
       <c r="J103" t="s">
-        <v>816</v>
+        <v>918</v>
       </c>
       <c r="K103" t="s">
-        <v>817</v>
+        <v>919</v>
       </c>
       <c r="L103" t="s">
-        <v>818</v>
+        <v>920</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>810</v>
+        <v>911</v>
       </c>
       <c r="O103" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P103" t="s"/>
       <c r="Q103" t="s"/>
@@ -10047,56 +10779,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>819</v>
+        <v>921</v>
       </c>
       <c r="X103" t="s">
-        <v>820</v>
+        <v>922</v>
       </c>
       <c r="Y103" t="s">
-        <v>821</v>
+        <v>923</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>56605</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>155194</v>
+      </c>
+      <c r="C104" t="s">
+        <v>924</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>822</v>
+        <v>925</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>823</v>
+        <v>926</v>
       </c>
       <c r="J104" t="s">
-        <v>824</v>
+        <v>927</v>
       </c>
       <c r="K104" t="s">
-        <v>825</v>
+        <v>928</v>
       </c>
       <c r="L104" t="s">
-        <v>826</v>
+        <v>929</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>827</v>
+        <v>930</v>
       </c>
       <c r="O104" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P104" t="s"/>
       <c r="Q104" t="s"/>
@@ -10112,56 +10848,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>828</v>
+        <v>931</v>
       </c>
       <c r="X104" t="s">
-        <v>829</v>
+        <v>932</v>
       </c>
       <c r="Y104" t="s">
-        <v>830</v>
+        <v>933</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>56605</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>155195</v>
+      </c>
+      <c r="C105" t="s">
+        <v>934</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>831</v>
+        <v>935</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>832</v>
+        <v>936</v>
       </c>
       <c r="J105" t="s">
-        <v>833</v>
+        <v>937</v>
       </c>
       <c r="K105" t="s">
-        <v>834</v>
+        <v>938</v>
       </c>
       <c r="L105" t="s">
-        <v>835</v>
+        <v>939</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>836</v>
+        <v>940</v>
       </c>
       <c r="O105" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P105" t="s"/>
       <c r="Q105" t="n">
@@ -10179,56 +10919,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>837</v>
+        <v>941</v>
       </c>
       <c r="X105" t="s">
-        <v>838</v>
+        <v>942</v>
       </c>
       <c r="Y105" t="s">
-        <v>839</v>
+        <v>943</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>56605</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>42022</v>
+      </c>
+      <c r="C106" t="s">
+        <v>944</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>840</v>
+        <v>945</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>841</v>
+        <v>946</v>
       </c>
       <c r="J106" t="s">
-        <v>842</v>
+        <v>947</v>
       </c>
       <c r="K106" t="s">
-        <v>843</v>
+        <v>948</v>
       </c>
       <c r="L106" t="s">
-        <v>844</v>
+        <v>949</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>827</v>
+        <v>930</v>
       </c>
       <c r="O106" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P106" t="s"/>
       <c r="Q106" t="s"/>
@@ -10240,56 +10984,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>845</v>
+        <v>950</v>
       </c>
       <c r="X106" t="s">
-        <v>846</v>
+        <v>951</v>
       </c>
       <c r="Y106" t="s">
-        <v>847</v>
+        <v>952</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>56605</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>155196</v>
+      </c>
+      <c r="C107" t="s">
+        <v>953</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>848</v>
+        <v>954</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>849</v>
+        <v>955</v>
       </c>
       <c r="J107" t="s">
-        <v>850</v>
+        <v>956</v>
       </c>
       <c r="K107" t="s">
-        <v>851</v>
+        <v>957</v>
       </c>
       <c r="L107" t="s">
-        <v>852</v>
+        <v>958</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>853</v>
+        <v>959</v>
       </c>
       <c r="O107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P107" t="s"/>
       <c r="Q107" t="s"/>
@@ -10301,56 +11049,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>854</v>
+        <v>960</v>
       </c>
       <c r="X107" t="s">
-        <v>855</v>
+        <v>961</v>
       </c>
       <c r="Y107" t="s">
-        <v>856</v>
+        <v>962</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>56605</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>155197</v>
+      </c>
+      <c r="C108" t="s">
+        <v>963</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>857</v>
+        <v>964</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>858</v>
+        <v>965</v>
       </c>
       <c r="J108" t="s">
-        <v>859</v>
+        <v>966</v>
       </c>
       <c r="K108" t="s">
-        <v>860</v>
+        <v>967</v>
       </c>
       <c r="L108" t="s">
-        <v>861</v>
+        <v>968</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>862</v>
+        <v>969</v>
       </c>
       <c r="O108" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -10368,56 +11120,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>863</v>
+        <v>970</v>
       </c>
       <c r="X108" t="s">
-        <v>864</v>
+        <v>971</v>
       </c>
       <c r="Y108" t="s">
-        <v>865</v>
+        <v>972</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>56605</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>110114</v>
+      </c>
+      <c r="C109" t="s">
+        <v>973</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>866</v>
+        <v>974</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>867</v>
+        <v>975</v>
       </c>
       <c r="J109" t="s">
-        <v>868</v>
+        <v>976</v>
       </c>
       <c r="K109" t="s">
-        <v>869</v>
+        <v>977</v>
       </c>
       <c r="L109" t="s">
-        <v>870</v>
+        <v>978</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>862</v>
+        <v>969</v>
       </c>
       <c r="O109" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P109" t="n">
         <v>3</v>
@@ -10439,13 +11195,13 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>863</v>
+        <v>970</v>
       </c>
       <c r="X109" t="s">
-        <v>864</v>
+        <v>971</v>
       </c>
       <c r="Y109" t="s">
-        <v>871</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>
